--- a/0250/file/5_search_news_cn.xlsx
+++ b/0250/file/5_search_news_cn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="342">
   <si>
     <t>标题</t>
   </si>
@@ -34,100 +34,103 @@
     <t>浏览量</t>
   </si>
   <si>
+    <t>Синьцзян продолжает добиваться успехов в социальном развитии и улучшении благосостояния населения</t>
+  </si>
+  <si>
+    <t>В первом полугодии объем инвестиций в Синьцзян превысил 355 млрд юаней</t>
+  </si>
+  <si>
+    <t>Си Цзиньпин проинспектировал город Турфан Синьцзян-Уйгурского автономного района /более подробно/</t>
+  </si>
+  <si>
+    <t>Открыто движения по новой скоростной автомагистрали, которая соединяет Синьцзян с другими регионами Китая</t>
+  </si>
+  <si>
+    <t>/Мультимедиа/ В первом полугодии объем инвестиций в Синьцзян превысил 355 млрд юаней</t>
+  </si>
+  <si>
+    <t>/Мультимедиа/ Синьцзян продолжает добиваться успехов в социальном развитии и улучшении благосостояния населения</t>
+  </si>
+  <si>
+    <t>Си Цзиньпин проинспектировал город Турфан Синьцзян-Уйгурского автономного района</t>
+  </si>
+  <si>
     <t>Рекордное количество грузовых поездов Китай-Европа прошло через Синьцзян в январе-августе 2022 года</t>
   </si>
   <si>
-    <t>Синьцзян продолжает добиваться успехов в социальном развитии и улучшении благосостояния населения</t>
-  </si>
-  <si>
-    <t>В первом полугодии объем инвестиций в Синьцзян превысил 355 млрд юаней</t>
-  </si>
-  <si>
-    <t>/Мультимедиа/ В первом полугодии объем инвестиций в Синьцзян превысил 355 млрд юаней</t>
-  </si>
-  <si>
-    <t>/Мультимедиа/ Синьцзян продолжает добиваться успехов в социальном развитии и улучшении благосостояния населения</t>
-  </si>
-  <si>
-    <t>Си Цзиньпин проинспектировал город Турфан Синьцзян-Уйгурского автономного района /более подробно/</t>
-  </si>
-  <si>
-    <t>Открыто движения по новой скоростной автомагистрали, которая соединяет Синьцзян с другими регионами Китая</t>
-  </si>
-  <si>
     <t>/В фокусе внимания Китая/ Дипломаты 30 исламских стран посетили Синьцзян-Уйгурский АР</t>
   </si>
   <si>
-    <t>Си Цзиньпин проинспектировал город Турфан Синьцзян-Уйгурского автономного района</t>
+    <t>Си Цзиньпин проинспектировал город Шихэцзы Синьцзян-Уйгурского автономного района</t>
+  </si>
+  <si>
+    <t>Си Цзиньпин проинспектировал город Шихэцзы Синьцзян-Уйгурского автономного района /более подробно/</t>
+  </si>
+  <si>
+    <t>Объем железнодорожных грузоперевозок в Синьцзян-Уйгурском АР превысил 100 млн тонн в этом году</t>
+  </si>
+  <si>
+    <t>/Мультимедиа/ Синьцзян является узловым центром сотрудничества в рамках инициативы &amp;quot;Пояс и путь&amp;quot; -- Си Цзиньпин</t>
+  </si>
+  <si>
+    <t>Синьцзян расширяет инвестирование в энергетический сектор</t>
   </si>
   <si>
     <t>Синьцзян является узловым центром сотрудничества в рамках инициативы &amp;quot;Пояс и путь&amp;quot; -- Си Цзиньпин</t>
   </si>
   <si>
-    <t>Си Цзиньпин проинспектировал город Шихэцзы Синьцзян-Уйгурского автономного района /более подробно/</t>
-  </si>
-  <si>
-    <t>Си Цзиньпин проинспектировал город Шихэцзы Синьцзян-Уйгурского автономного района</t>
-  </si>
-  <si>
-    <t>Синьцзян расширяет инвестирование в энергетический сектор</t>
-  </si>
-  <si>
-    <t>Объем железнодорожных грузоперевозок в Синьцзян-Уйгурском АР превысил 100 млн тонн в этом году</t>
-  </si>
-  <si>
-    <t>/Мультимедиа/ Синьцзян является узловым центром сотрудничества в рамках инициативы &amp;quot;Пояс и путь&amp;quot; -- Си Цзиньпин</t>
+    <t>&amp;quot;Зеленый барьер&amp;quot; на юго-западном краю пустыни Такла-Макан в Синьцзян-Уйгурском АР</t>
+  </si>
+  <si>
+    <t>Синьцзян привлек инвестиции в размере 115,9 млрд юаней в первые четыре месяца 2022 года</t>
+  </si>
+  <si>
+    <t>Китай опроверг &amp;quot;опасения&amp;quot; США по поводу визита Верховного комиссара ООН по правам человека в Синьцзян</t>
+  </si>
+  <si>
+    <t>Гостям из Омана рассказали о социально-экономическом развитии Синьцзян-Уйгурского АР</t>
+  </si>
+  <si>
+    <t>Наследница техники вышивания в Синьцзян-Уйгурском АР</t>
+  </si>
+  <si>
+    <t>Моя родина - Синьцзян: маленькие шефы и их печеные баоцзы</t>
   </si>
   <si>
     <t>Синьцзян, мой дом: увлекательные уроки музыки воспитательницы детского сада</t>
   </si>
   <si>
-    <t>Наследница техники вышивания в Синьцзян-Уйгурском АР</t>
-  </si>
-  <si>
-    <t>Гостям из Омана рассказали о социально-экономическом развитии Синьцзян-Уйгурского АР</t>
-  </si>
-  <si>
-    <t>&amp;quot;Зеленый барьер&amp;quot; на юго-западном краю пустыни Такла-Макан в Синьцзян-Уйгурском АР</t>
-  </si>
-  <si>
-    <t>Синьцзян привлек инвестиции в размере 115,9 млрд юаней в первые четыре месяца 2022 года</t>
-  </si>
-  <si>
-    <t>Китай опроверг &amp;quot;опасения&amp;quot; США по поводу визита Верховного комиссара ООН по правам человека в Синьцзян</t>
-  </si>
-  <si>
-    <t>Моя родина - Синьцзян: маленькие шефы и их печеные баоцзы</t>
-  </si>
-  <si>
     <t>Синьцзян добивается успехов в консолидации усилий по борьбе с бедностью</t>
   </si>
   <si>
     <t>Синьцзян, моя родина: новые навыки, новая жизнь</t>
   </si>
   <si>
+    <t>Синьцзян расширил масштабы кредитования в с/х секторе для стимулирования его высококачественного развития</t>
+  </si>
+  <si>
     <t>/Мультимедиа/ Китай приветствует визит верховного комиссара ООН по правам человека в Синьцзян -- Ван И</t>
   </si>
   <si>
     <t>Китай приветствует визит верховного комиссара ООН по правам человека в Синьцзян -- Ван И</t>
   </si>
   <si>
-    <t>Синьцзян расширил масштабы кредитования в с/х секторе для стимулирования его высококачественного развития</t>
-  </si>
-  <si>
     <t>Синьцзян установил новый рекорд по объему передачи электроэнергии в другие регионы страны</t>
   </si>
   <si>
+    <t>Ма Синжуй назначен секретарем комитета КПК Синьцзян-Уйгурского автономного района</t>
+  </si>
+  <si>
+    <t>Синьцзян планирует построить 100 центров для популяризации науки среди сельской молодежи</t>
+  </si>
+  <si>
     <t>Синьцзян стремится к устойчивому развитию всех этнических групп -- чиновник</t>
   </si>
   <si>
-    <t>Ма Синжуй назначен секретарем комитета КПК Синьцзян-Уйгурского автономного района</t>
-  </si>
-  <si>
     <t>Попытки США использовать Синьцзян для сдерживания Китая никогда не увенчаются успехом -- МИД КНР</t>
   </si>
   <si>
-    <t>Синьцзян планирует построить 100 центров для популяризации науки среди сельской молодежи</t>
+    <t>Посольство КНР в Турции и правительство СУАР провело онлайн-семинар на тему &amp;quot;Синьцзян -- прекрасное место&amp;quot;</t>
   </si>
   <si>
     <t>Баскетбол -- Чемпионат КБА 2021-2022, первый этап: &amp;quot;Цзилинь Цзютай Нуншан Иньхан&amp;quot; одолел &amp;quot;Синьцзян Или Ванцзю&amp;quot;</t>
@@ -136,16 +139,19 @@
     <t>Синьцзян выдвинул 42 меры по содействию здоровому развитию подростков</t>
   </si>
   <si>
+    <t>Синьцзян сообщил об 1 подтвержденном случае заболевания COVID-19</t>
+  </si>
+  <si>
     <t>Эркин Тунияз назначен и.о. председателя правительства Синьцзян-Уйгурского автономного района</t>
   </si>
   <si>
     <t>В Синьцзян отправлена рабочая группа для руководства работой по борьбе с COVID-19</t>
   </si>
   <si>
-    <t>Синьцзян сообщил об 1 подтвержденном случае заболевания COVID-19</t>
-  </si>
-  <si>
-    <t>Посольство КНР в Турции и правительство СУАР провело онлайн-семинар на тему &amp;quot;Синьцзян -- прекрасное место&amp;quot;</t>
+    <t>Синьцзян находится в лучшем периоде развития в своей истории - Белая книга</t>
+  </si>
+  <si>
+    <t>Синьцзян-мой дом: счастливая жизнь семьи Еркина</t>
   </si>
   <si>
     <t>Синьцзян: обычная жизнь повара</t>
@@ -154,24 +160,18 @@
     <t>Синьцзян обеспечивает разнообразие устных языков и письменности - Белая книга</t>
   </si>
   <si>
-    <t>Синьцзян-мой дом: счастливая жизнь семьи Еркина</t>
-  </si>
-  <si>
-    <t>Синьцзян находится в лучшем периоде развития в своей истории - Белая книга</t>
+    <t>Синьцзян построил четыре линии электропередачи в целях поставки электричества в другие районы Китая</t>
+  </si>
+  <si>
+    <t>Синьцзян борется с экстремизмом в целях защиты свободы личности - Белая книга</t>
+  </si>
+  <si>
+    <t>Белая книга: Синьцзян борется с экстремизмом в целях защиты свободы личности</t>
   </si>
   <si>
     <t>Представители международных отраслевых организаций и иностранных предприятий в Китае посетят Синьцзян -- Минкоммерции КНР</t>
   </si>
   <si>
-    <t>Белая книга: Синьцзян борется с экстремизмом в целях защиты свободы личности</t>
-  </si>
-  <si>
-    <t>Синьцзян построил четыре линии электропередачи в целях поставки электричества в другие районы Китая</t>
-  </si>
-  <si>
-    <t>Синьцзян борется с экстремизмом в целях защиты свободы личности - Белая книга</t>
-  </si>
-  <si>
     <t>Синьцзян достиг рекордно высокого уровня эффективности использования новой энергии</t>
   </si>
   <si>
@@ -181,49 +181,55 @@
     <t>Заметно повышается эффективность таможенного контроля на КПП Карасу в Синьцзян-Уйгурском АР</t>
   </si>
   <si>
+    <t>В Синьцзян отправлена рабочая группа для оказания помощи в проведении аварийно-спасательных работ после затопления угольной шахты</t>
+  </si>
+  <si>
     <t>Пропускная способность КПП Карасу в Синьцзян-Уйгурском АР заметно повысилась</t>
   </si>
   <si>
-    <t>В Синьцзян отправлена рабочая группа для оказания помощи в проведении аварийно-спасательных работ после затопления угольной шахты</t>
-  </si>
-  <si>
     <t>Весенний сев хлопчатника в Синьцзян-Уйгурском автономном районе на северо-западе Китая</t>
   </si>
   <si>
+    <t>В Урумчи прошел семинар с участием иностранных дипломатов “Синьцзян -- замечательный край”</t>
+  </si>
+  <si>
     <t>В 2021 году Синьцзян планирует вложить почти 37 млрд долл. США в местные ключевые проекты</t>
   </si>
   <si>
-    <t>В Урумчи прошел семинар с участием иностранных дипломатов “Синьцзян -- замечательный край”</t>
+    <t>Рост числа доставок грузовыми поездами Иу-Синьцзян-Европа</t>
+  </si>
+  <si>
+    <t>Китай надеется, что большее число иностранных СМИ будет освещать Синьцзян объективно и беспристрастно -- МИД КНР</t>
   </si>
   <si>
     <t>Синьцзян избавился от абсолютной нищеты</t>
   </si>
   <si>
-    <t>Рост числа доставок грузовыми поездами Иу-Синьцзян-Европа</t>
-  </si>
-  <si>
     <t>Синьцзян добился выдающихся успехов в развитии -- камбоджийский чиновник</t>
   </si>
   <si>
-    <t>Китай надеется, что большее число иностранных СМИ будет освещать Синьцзян объективно и беспристрастно -- МИД КНР</t>
+    <t>Более 1200 иностранных должностных лиц и журналистов посетили Синьцзян с конца 2018 года</t>
+  </si>
+  <si>
+    <t>Синьцзян будет в дальнейшем способствовать развитию туризма</t>
+  </si>
+  <si>
+    <t>В 2020 году через Синьцзян-Уйгурский АР проследовало рекордное количество грузовых поездов Китай-Европа</t>
   </si>
   <si>
     <t>Чиновник Синьцзяна опроверг обвинения М. Помпео и пригласил иностранцев посетить Синьцзян</t>
   </si>
   <si>
-    <t>Синьцзян будет в дальнейшем способствовать развитию туризма</t>
-  </si>
-  <si>
     <t>Представитель МИД ЮАР поддержал политику Китая по управлению Синьцзян-Уйгурским автономным районом</t>
   </si>
   <si>
-    <t>Более 1200 иностранных должностных лиц и журналистов посетили Синьцзян с конца 2018 года</t>
-  </si>
-  <si>
     <t>/Мультимедиа/ В 2020 году через Синьцзян-Уйгурский АР проследовало рекордное количество грузовых поездов Китай-Европа</t>
   </si>
   <si>
-    <t>В 2020 году через Синьцзян-Уйгурский АР проследовало рекордное количество грузовых поездов Китай-Европа</t>
+    <t>В Синьцзян-Уйгурском АР обнаружены огромные запасы природного газа</t>
+  </si>
+  <si>
+    <t>Синьцзян-Тибет - самая высокогорная и сложная автодорога в мире</t>
   </si>
   <si>
     <t>/Мультимедиа/ В Синьцзян-Уйгурском АР обнаружены огромные запасы природного газа</t>
@@ -232,105 +238,99 @@
     <t>Синьцзян-Уйгурский автономный район Китая избавился от абсолютной бедности</t>
   </si>
   <si>
+    <t>Китай раскритиковал США за запрет импорта хлопка из Синьцзян-Уйгурского АР</t>
+  </si>
+  <si>
     <t>Синьцзян-Уйгурский АР избавился от нищеты</t>
   </si>
   <si>
-    <t>Синьцзян-Тибет - самая высокогорная и сложная автодорога в мире</t>
-  </si>
-  <si>
     <t>/Мультимедиа/ Синьцзян-Уйгурский АР избавился от нищеты</t>
   </si>
   <si>
-    <t>В Синьцзян-Уйгурском АР обнаружены огромные запасы природного газа</t>
-  </si>
-  <si>
-    <t>Китай раскритиковал США за запрет импорта хлопка из Синьцзян-Уйгурского АР</t>
-  </si>
-  <si>
     <t>Китайский Синьцзян избавился от абсолютной нищеты</t>
   </si>
   <si>
+    <t>https://russian.news.cn/20220828/89301445754c43cb966f38953d18eada/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220720/fe68e5cac2204acc882372b54bc94ed5/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220715/496ec6d305514758b8b1a40aefa3031a/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220831/f942a071f80b4aff9f8efe3e59040a12/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220720/1eed71fa520c4bf48ea3c1a0beb697eb/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220828/4357682f3bff4a61aaad896d6a0165ea/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220715/bde301b75f9042d696ac4b94925b434f/c.html</t>
+  </si>
+  <si>
     <t>https://russian.news.cn/20220921/039a5022978d441f9175d46110c862b1/c.html</t>
   </si>
   <si>
-    <t>https://russian.news.cn/20220828/89301445754c43cb966f38953d18eada/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220720/fe68e5cac2204acc882372b54bc94ed5/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220720/1eed71fa520c4bf48ea3c1a0beb697eb/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220828/4357682f3bff4a61aaad896d6a0165ea/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220715/496ec6d305514758b8b1a40aefa3031a/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220831/f942a071f80b4aff9f8efe3e59040a12/c.html</t>
-  </si>
-  <si>
     <t>https://russian.news.cn/20220807/6d6a3778a81b4b4cb65d2210b9c018ed/c.html</t>
   </si>
   <si>
-    <t>https://russian.news.cn/20220715/bde301b75f9042d696ac4b94925b434f/c.html</t>
+    <t>https://russian.news.cn/20220715/b414e6fa88cb4c3e9bd9e544d2e43b8a/c.html</t>
   </si>
   <si>
     <t>https://russian.news.cn/20220715/b6f0a09066194b0a8bb7e18a67f4c35d/c.html</t>
   </si>
   <si>
+    <t>https://russian.news.cn/20220715/db1e88dcbbb74ba1adf09a568d192c7a/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220715/5dac51c135b140b98ce075a8c9bad743/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220715/38d655add23d4bd8926127fa2825eadc/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220715/d97783eb32e8437084fd345e81cfa82e/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220629/3d3c0e763c634cf2aa851df82f581be9/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220715/87b76c6e3296480fa919341e1aafac37/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220618/0c51bd35e2ee41599fd2ddd9b68f24eb/c.html</t>
+  </si>
+  <si>
     <t>https://russian.news.cn/20220715/7d391164b9f940d9bf99f2426321f702/c.html</t>
   </si>
   <si>
-    <t>https://russian.news.cn/20220715/38d655add23d4bd8926127fa2825eadc/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220715/db1e88dcbbb74ba1adf09a568d192c7a/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220715/5dac51c135b140b98ce075a8c9bad743/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220715/b414e6fa88cb4c3e9bd9e544d2e43b8a/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220715/d97783eb32e8437084fd345e81cfa82e/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220618/0c51bd35e2ee41599fd2ddd9b68f24eb/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220629/3d3c0e763c634cf2aa851df82f581be9/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220715/87b76c6e3296480fa919341e1aafac37/c.html</t>
+    <t>https://russian.news.cn/20220617/044b2d7f23a341bdb4e04418998f4f66/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220526/4ad3cb7c51d440ab8f8eec971c755c85/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220526/3773060a0f2241c99afed7a372748272/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220524/3fc6d213970f419d827ff2546ab7c866/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220420/de4a16ef9f3a4077819fd7ff3f969fc0/c.html</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2022-03/21/c_1310522583.htm</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20220521/1355562b00c542a1aeb894e1af662320/c.html</t>
   </si>
   <si>
     <t>http://russian.news.cn/2022-04/07/c_1310547285.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2022-03/21/c_1310522583.htm</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220420/de4a16ef9f3a4077819fd7ff3f969fc0/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220617/044b2d7f23a341bdb4e04418998f4f66/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220526/3773060a0f2241c99afed7a372748272/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220524/3fc6d213970f419d827ff2546ab7c866/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220521/1355562b00c542a1aeb894e1af662320/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220526/4ad3cb7c51d440ab8f8eec971c755c85/c.html</t>
-  </si>
-  <si>
     <t>https://russian.news.cn/20220420/61bf0a6ac6694decab4959c014a16d6a/c.html</t>
   </si>
   <si>
@@ -340,184 +340,190 @@
     <t>http://russian.news.cn/2022-02/27/c_1310490718.htm</t>
   </si>
   <si>
+    <t>https://russian.news.cn/20220227/C9BE08A31A10000120F51B6D174F1DEE/c.html</t>
+  </si>
+  <si>
     <t>http://russian.news.cn/2022-02/27/c_1310490461.htm</t>
   </si>
   <si>
     <t>http://russian.news.cn/2022-03/12/c_1310511433.htm</t>
   </si>
   <si>
+    <t>http://russian.news.cn/2022-01/28/c_1310444602.htm</t>
+  </si>
+  <si>
     <t>http://russian.news.cn/2022-02/20/c_1310479932.htm</t>
   </si>
   <si>
+    <t>https://russian.news.cn/20220220/C9BE08A31690000117CE169082697750/c.html</t>
+  </si>
+  <si>
     <t>http://russian.news.cn/2022-02/20/c_1310479930.htm</t>
   </si>
   <si>
-    <t>https://russian.news.cn/20220227/C9BE08A31A10000120F51B6D174F1DEE/c.html</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2022-01/28/c_1310444602.htm</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220220/C9BE08A31690000117CE169082697750/c.html</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2022-01/10/c_1310417499.htm</t>
   </si>
   <si>
+    <t>http://russian.news.cn/2021-12/25/c_1310392449.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2022-01/10/c_1310417508.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-12/18/c_1310380578.htm</t>
+  </si>
+  <si>
     <t>http://russian.news.cn/2022-01/01/c_1310404394.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2022-01/10/c_1310417508.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-12/25/c_1310392449.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2021-12/17/c_1310379643.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-12/18/c_1310380578.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2021-12/18/c_1310380547.htm</t>
   </si>
   <si>
+    <t>https://russian.news.cn/20220110/C9BE08A305B000015CC8DDF015471B9D/c.html</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20211225/C9BD56C2CD60000167AD1BD011801A86/c.html</t>
+  </si>
+  <si>
     <t>https://russian.news.cn/20220128/C9BE08A30C800001F79712E82BF07A50/c.html</t>
   </si>
   <si>
-    <t>https://russian.news.cn/20211225/C9BD56C2CD60000167AD1BD011801A86/c.html</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20220110/C9BE08A305B000015CC8DDF015471B9D/c.html</t>
+    <t>http://russian.news.cn/2021-10/24/c_1310264635.htm</t>
   </si>
   <si>
     <t>http://russian.news.cn/2021-11/15/c_1310310787.htm</t>
   </si>
   <si>
+    <t>https://russian.news.cn/20211217/C9BD56C2CC300001B71E147EA4B01CAD/c.html</t>
+  </si>
+  <si>
     <t>http://russian.news.cn/2021-09/08/c_1310175157.htm</t>
   </si>
   <si>
+    <t>http://russian.news.cn/2021-10/06/c_1310228630.htm</t>
+  </si>
+  <si>
     <t>http://russian.news.cn/2021-10/01/c_1310222051.htm</t>
   </si>
   <si>
-    <t>https://russian.news.cn/20211217/C9BD56C2CC300001B71E147EA4B01CAD/c.html</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2021-10/04/c_1310225761.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-10/06/c_1310228630.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2021-09/08/c_1310174943.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-10/24/c_1310264635.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2021-10/06/c_1310228329.htm</t>
   </si>
   <si>
+    <t>http://russian.news.cn/2021-07/14/c_1310060722.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-07/26/c_1310086711.htm</t>
+  </si>
+  <si>
     <t>http://russian.news.cn/2021-08/17/c_1310131667.htm</t>
   </si>
   <si>
     <t>http://russian.news.cn/2021-07/14/c_1310060863.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-07/26/c_1310086711.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-07/14/c_1310060722.htm</t>
+    <t>http://russian.news.cn/2021-06/25/c_1310026943.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-07/14/c_1310060640.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-07/14/c_1310060958.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-07/14/c_1310060262.htm</t>
   </si>
   <si>
     <t>http://russian.news.cn/2021-07/08/c_1310050084.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-07/14/c_1310060262.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-06/25/c_1310026943.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-07/14/c_1310060640.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2021-06/06/c_139991568.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-07/14/c_1310060958.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2021-05/01/c_139918910.htm</t>
   </si>
   <si>
     <t>http://russian.news.cn/2021-04/07/c_139863411.htm</t>
   </si>
   <si>
+    <t>http://russian.news.cn/2021-04/11/c_139872976.htm</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20210407/C9BD56C2F1A00001ADC4F15F10825830/c.html</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-04/11/c_139872886.htm</t>
+  </si>
+  <si>
     <t>http://russian.news.cn/2021-04/06/c_139860665.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-04/11/c_139872886.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-04/11/c_139872976.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2021-04/06/c_139862374.htm</t>
   </si>
   <si>
     <t>https://russian.news.cn/20210406/C9BD56C2F19000012C2B183F8FAA19E4/c.html</t>
   </si>
   <si>
-    <t>https://russian.news.cn/20210407/C9BD56C2F1A00001ADC4F15F10825830/c.html</t>
+    <t>http://russian.news.cn/2021-04/03/c_139856018.htm</t>
   </si>
   <si>
     <t>http://russian.news.cn/2021-03/25/c_139834773.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-04/03/c_139856018.htm</t>
+    <t>http://russian.news.cn/2021-03/23/c_139830592.htm</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20210323/C9BD56C2F0E00001D9A113E014D916B0/c.html</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-02/23/c_139759591.htm</t>
   </si>
   <si>
     <t>http://russian.news.cn/2021-02/26/c_139768391.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-03/23/c_139830592.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2021-02/10/c_139733758.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-02/23/c_139759591.htm</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20210323/C9BD56C2F0E00001D9A113E014D916B0/c.html</t>
+    <t>http://russian.news.cn/2021-02/06/c_139724566.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-02/01/c_139713333.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-02/01/c_139713272.htm</t>
+  </si>
+  <si>
+    <t>https://russian.news.cn/20210104/C9BD56C2EEE00001783E2BE91FA022A0/c.html</t>
   </si>
   <si>
     <t>http://russian.news.cn/2021-02/01/c_139712926.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-02/01/c_139713272.htm</t>
+    <t>http://russian.news.cn/2021-01/04/c_139638839.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-02/05/c_139723191.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2021-01/04/c_139638840.htm</t>
   </si>
   <si>
     <t>http://russian.news.cn/2021-02/01/c_139712909.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2021-02/05/c_139723191.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-02/06/c_139724566.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-02/01/c_139713333.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-01/04/c_139638840.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-01/04/c_139638839.htm</t>
-  </si>
-  <si>
-    <t>https://russian.news.cn/20210104/C9BD56C2EEE00001783E2BE91FA022A0/c.html</t>
+    <t>http://russian.news.cn/2020-12/20/c_139603755.htm</t>
+  </si>
+  <si>
+    <t>http://russian.news.cn/2020-11/23/c_139536514.htm</t>
   </si>
   <si>
     <t>http://russian.news.cn/2020-12/20/c_139603759.htm</t>
@@ -526,175 +532,172 @@
     <t>http://russian.news.cn/2020-11/15/c_139517380.htm</t>
   </si>
   <si>
+    <t>http://russian.news.cn/2020-12/04/c_139561806.htm</t>
+  </si>
+  <si>
     <t>http://russian.news.cn/2020-11/15/c_139516717.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2020-11/23/c_139536514.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2020-11/15/c_139516720.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2020-12/20/c_139603755.htm</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2020-12/04/c_139561806.htm</t>
-  </si>
-  <si>
     <t>http://russian.news.cn/2020-11/16/c_139519475.htm</t>
   </si>
   <si>
-    <t>http://russian.news.cn/2022-04/07/xhpic002/M08/47/06/wKhThWJOfAAEAAAAAAAAAAAAAAA055.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2022-03/21/xhpic002/M09/40/40/wKhThGI3uyoEAAAAAAAAAAAAAAA166.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2022-02/27/xhpic002/M06/3B/F3/wKhThWIbD4wEAAAAAAAAAAAAAAA073.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2022-03/12/xhpic001/M02/66/1C/wKhTgmIsG2EEAAAAAAAAAAAAAAA300.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2022-01/10/xhpic003/M05/5F/EB/wKhTh2HcEPIEAAAAAAAAAAAAAAA468.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-12/18/xhpic003/M02/57/AD/wKhTh2G-mjMEAAAAAAAAAAAAAAA141.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-11/15/xhpic002/M09/1A/34/wKhThWGRn2QEAAAAAAAAAAAAAAA241.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-10/06/xhpic002/M05/0E/3B/wKhThWFdCywEAAAAAAAAAAAAAAA616.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-08/17/xhpic002/M02/FE/2B/wKhThWEbENAEAAAAAAAAAAAAAAA978.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-07/26/xhpic001/M06/17/54/wKhTg2D-V34EAAAAAAAAAAAAAAA398.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-06/25/xhpic001/M08/0D/6D/wKhTgmDVOIkEAAAAAAAAAAAAAAA764.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-07/14/xhpic001/M09/13/B3/wKhTgmDueuUEAAAAAAAAAAAAAAA049.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-07/14/xhpic001/M03/13/BF/wKhTgmDuoWUEAAAAAAAAAAAAAAA034.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-05/01/xhpic002/M04/D3/CA/wKhThWCM9s4EAAAAAAAAAAAAAAA281.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-04/07/xhpic002/M06/C8/5E/wKhThWBs_Y0EAAAAAAAAAAAAAAA866.png</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-04/06/xhpic003/M00/AA/1A/wKhTh2B_Z24EAAAAAAAAAAAAAAA439.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-04/11/xhpic001/M09/EE/34/wKhTgmByq_QEAAAAAAAAAAAAAAA533.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-04/06/xhpic001/M07/EC/36/wKhTgmBsNcsEAAAAAAAAAAAAAAA314.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-04/03/xhpic002/M00/C7/3E/wKhThWBoM-cEAAAAAAAAAAAAAAA668.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-02/26/xhpic001/M04/DA/BE/wKhTgmA4QLQEAAAAAAAAAAAAAAA948.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-02/01/xhpic001/M03/D0/3E/wKhTgmAXmZkEAAAAAAAAAAAAAAA800.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-02/01/xhpic003/M01/66/78/wKhTh2AX0tQEAAAAAAAAAAAAAAA895.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2021-01/04/xhpic003/M05/4E/CE/wKhTh1_yXKkEAAAAAAAAAAAAAAA861.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2020-11/15/xhpic003/M06/27/06/wKhTh1-wmvgEAAAAAAAAAAAAAAA284.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2020-11/15/xhpic001/M05/B0/B8/wKhTgl-w2YcEAAAAAAAAAAAAAAA002.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2020-11/23/xhpic002/M05/90/06/wKhThV-7GdMEAAAAAAAAAAAAAAA286.jpg</t>
-  </si>
-  <si>
-    <t>http://russian.news.cn/2020-11/16/xhpic002/M07/8B/2E/wKhThF-yFhcEAAAAAAAAAAAAAAA785.jpg</t>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M09/40/40/wKhThGI3uyoEAAAAAAAAAAAAAAA166.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M08/47/06/wKhThWJOfAAEAAAAAAAAAAAAAAA055.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M06/3B/F3/wKhThWIbD4wEAAAAAAAAAAAAAAA073.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M02/66/1C/wKhTgmIsG2EEAAAAAAAAAAAAAAA300.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic003/M05/5F/EB/wKhTh2HcEPIEAAAAAAAAAAAAAAA468.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic003/M02/57/AD/wKhTh2G-mjMEAAAAAAAAAAAAAAA141.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M09/1A/34/wKhThWGRn2QEAAAAAAAAAAAAAAA241.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M05/0E/3B/wKhThWFdCywEAAAAAAAAAAAAAAA616.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M06/17/54/wKhTg2D-V34EAAAAAAAAAAAAAAA398.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M02/FE/2B/wKhThWEbENAEAAAAAAAAAAAAAAA978.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M08/0D/6D/wKhTgmDVOIkEAAAAAAAAAAAAAAA764.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M09/13/B3/wKhTgmDueuUEAAAAAAAAAAAAAAA049.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M03/13/BF/wKhTgmDuoWUEAAAAAAAAAAAAAAA034.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M04/D3/CA/wKhThWCM9s4EAAAAAAAAAAAAAAA281.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M06/C8/5E/wKhThWBs_Y0EAAAAAAAAAAAAAAA866.png</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M09/EE/34/wKhTgmByq_QEAAAAAAAAAAAAAAA533.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic003/M00/AA/1A/wKhTh2B_Z24EAAAAAAAAAAAAAAA439.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M07/EC/36/wKhTgmBsNcsEAAAAAAAAAAAAAAA314.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M00/C7/3E/wKhThWBoM-cEAAAAAAAAAAAAAAA668.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M04/DA/BE/wKhTgmA4QLQEAAAAAAAAAAAAAAA948.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic003/M01/66/78/wKhTh2AX0tQEAAAAAAAAAAAAAAA895.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M03/D0/3E/wKhTgmAXmZkEAAAAAAAAAAAAAAA800.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic003/M05/4E/CE/wKhTh1_yXKkEAAAAAAAAAAAAAAA861.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M05/90/06/wKhThV-7GdMEAAAAAAAAAAAAAAA286.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic003/M06/27/06/wKhTh1-wmvgEAAAAAAAAAAAAAAA284.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic001/M05/B0/B8/wKhTgl-w2YcEAAAAAAAAAAAAAAA002.jpg</t>
+  </si>
+  <si>
+    <t>http://tpic.home.news.cn/xhCloudNewsPic/xhpic002/M07/8B/2E/wKhThF-yFhcEAAAAAAAAAAAAAAA785.jpg</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
+  </si>
+  <si>
+    <t>2022-07-20</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
   </si>
   <si>
     <t>2022-09-21</t>
   </si>
   <si>
-    <t>2022-08-28</t>
-  </si>
-  <si>
-    <t>2022-07-20</t>
-  </si>
-  <si>
-    <t>2022-07-15</t>
-  </si>
-  <si>
-    <t>2022-08-31</t>
-  </si>
-  <si>
     <t>2022-08-07</t>
   </si>
   <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
     <t>2022-06-18</t>
   </si>
   <si>
-    <t>2022-06-29</t>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-05-21</t>
   </si>
   <si>
     <t>2022-04-07</t>
   </si>
   <si>
-    <t>2022-03-21</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>2022-06-17</t>
-  </si>
-  <si>
-    <t>2022-05-26</t>
-  </si>
-  <si>
-    <t>2022-05-24</t>
-  </si>
-  <si>
-    <t>2022-05-21</t>
-  </si>
-  <si>
     <t>2022-02-27</t>
   </si>
   <si>
     <t>2022-03-12</t>
   </si>
   <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
     <t>2022-02-20</t>
   </si>
   <si>
-    <t>2022-01-28</t>
-  </si>
-  <si>
     <t>2022-01-10</t>
   </si>
   <si>
+    <t>2021-12-25</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
     <t>2022-01-01</t>
   </si>
   <si>
-    <t>2021-12-25</t>
-  </si>
-  <si>
     <t>2021-12-17</t>
   </si>
   <si>
-    <t>2021-12-18</t>
+    <t>2021-10-24</t>
   </si>
   <si>
     <t>2021-11-15</t>
@@ -703,33 +706,30 @@
     <t>2021-09-08</t>
   </si>
   <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
     <t>2021-10-01</t>
   </si>
   <si>
     <t>2021-10-04</t>
   </si>
   <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>2021-10-24</t>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
   </si>
   <si>
     <t>2021-08-17</t>
   </si>
   <si>
-    <t>2021-07-14</t>
-  </si>
-  <si>
-    <t>2021-07-26</t>
+    <t>2021-06-25</t>
   </si>
   <si>
     <t>2021-07-08</t>
   </si>
   <si>
-    <t>2021-06-25</t>
-  </si>
-  <si>
     <t>2021-06-06</t>
   </si>
   <si>
@@ -739,126 +739,126 @@
     <t>2021-04-07</t>
   </si>
   <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
     <t>2021-04-06</t>
   </si>
   <si>
-    <t>2021-04-11</t>
+    <t>2021-04-03</t>
   </si>
   <si>
     <t>2021-03-25</t>
   </si>
   <si>
-    <t>2021-04-03</t>
+    <t>2021-03-23</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
   </si>
   <si>
     <t>2021-02-26</t>
   </si>
   <si>
-    <t>2021-03-23</t>
-  </si>
-  <si>
     <t>2021-02-10</t>
   </si>
   <si>
-    <t>2021-02-23</t>
+    <t>2021-02-06</t>
   </si>
   <si>
     <t>2021-02-01</t>
   </si>
   <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
     <t>2021-02-05</t>
   </si>
   <si>
-    <t>2021-02-06</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
     <t>2020-12-20</t>
   </si>
   <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
     <t>2020-11-15</t>
   </si>
   <si>
-    <t>2020-11-23</t>
-  </si>
-  <si>
     <t>2020-12-04</t>
   </si>
   <si>
     <t>2020-11-16</t>
   </si>
   <si>
+    <t>Урумчи, 27 августа /Синьхуа/ -- На протяжении последних 10 лет Синьцзян-Уйгурский автономный район /СУАР, Северо-западный Китай/ добивается постоянного прогресса в социальном развитии и улучшении благосостояния населения. Об этом на прошедшей сегодня пресс-конференции сообщил партийный комитет СУАР.В 2021 году валовой региональный продукт /ВРП/ Синьцзяна достиг почти 1,6 трлн юаней /около 232,8 млрд долларов США/, что вдвое больше, чем в 2012 году, заявил секретарь комитета КПК СУАР Ма Синжуй. За последнее десятилетие более 70 проц бюджетных расходов района было направлено на повышение уровня жизни людей, продолжил он.Трехлетнее дошкольное образование и девятилетнее обязательное образование являются бесплатными в сельских районах Синьцзяна, а в четырех округах на юге СУАР доступно бесплатное 15-летнее образование, отметил Ма Синжуй.Помимо этого, за указанный период Синьцзян всесторонне реализовывал этническую политику КПК, способствуя широкому обмену и интеграции между представителями всех этнических групп.Председатель правительства СУАР Эркин Тунияз, в свою очередь, сообщил, что Синьцзян продолжает развивать центральную зону Экономического пояса Шелкового пути и укреплять торгово-экономические связи со странами, расположенными вдоль "Пояса и пути".По его словам, СУАР подписал 21 соглашение о сотрудничестве с 25 странами и международными организациями и установил торгово-экономические отношения со 176 странами и регионами мира.</t>
+  </si>
+  <si>
+    <t>Урумчи, 20 июля /Синьхуа/ -- Приток инвестиций в Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ продемонстрировал стабильный рост в первой половине 2022 года. Об этом сообщило Управление коммерции СУАР.Как отметило управление, всего в регион было привлечено почти 355,3 млрд юаней /около 52,7 млрд долларов США/, что на 37 проц больше, чем за аналогичный период прошлого года.Успехи, достигнутые в привлечении инвестиций за первое полугодие, объясняются эффективным использованием рыночных методов и инновационных способов привлечения инвестиций различными районами и ведомствами, заявили в управлении.Управление выразило готовность к дальнейшему улучшению инвестиционного климата в Синьцзяне.</t>
+  </si>
+  <si>
+    <t>Урумчи, 15 июля /Синьхуа/ -- Генеральный секретарь ЦК КПК Си Цзиньпин во второй половине четверга в рамках инспекционной поездки по Синьцзян-Уйгурскому автономному району на северо-западе Китая посетил город Турфан.Си Цзиньпин посетил Виноградную долину, а также одну из местных деревень и руины древнего города Цзяохэ, чтобы ознакомиться с местными усилиями по развитию специфических производств, продвижению подъема села, а также сохранению и использованию культурного наследия.</t>
+  </si>
+  <si>
+    <t>Третья скоростная автомагистраль, соединяющая Синьцзян с другими регионами Китая,открылась для движения.</t>
+  </si>
+  <si>
+    <t>В первом полугодии объем инвестиций в Синьцзян превысил 355 млрд юаней. /Фото: Синьхуа/Урумчи, 20 июля /Синьхуа/ -- Приток инвестиций в Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ продемонстрировал стабильный рост в первой половине 2022 года. Об этом сообщило Управление коммерции СУАР.Как отметило управление, всего в регион было привлечено почти 355,3 млрд юаней /около 52,7 млрд долларов США/, что на 37 проц больше, чем за аналогичный период прошлого года.Успехи, достигнутые в привлечении инвестиций за первое полугодие, объясняются эффективным использованием рыночных методов и инновационных способов привлечения инвестиций различными районами и ведомствами, заявили в управлении.Управление выразило готовность к дальнейшему улучшению инвестиционного климата в Синьцзяне. --0--</t>
+  </si>
+  <si>
+    <t>Синьцзян продолжает добиваться успехов в социальном развитии и улучшении благосостояния населения. /Фото: Синьхуа/Урумчи, 27 августа /Синьхуа/ -- На протяжении последних 10 лет Синьцзян-Уйгурский автономный район /СУАР, Северо-западный Китай/ добивается постоянного прогресса в социальном развитии и улучшении благосостояния населения. Об этом на прошедшей сегодня пресс-конференции сообщил партийный комитет СУАР.В 2021 году валовой региональный продукт /ВРП/ Синьцзяна достиг почти 1,6 трлн юаней /около 232,8 млрд долларов США/, что вдвое больше, чем в 2012 году, заявил секретарь комитета КПК СУАР Ма Синжуй. За последнее десятилетие более 70 проц бюджетных расходов района было направлено на повышение уровня жизни людей, продолжил он.Трехлетнее дошкольное образование и девятилетнее обязательное образование являются бесплатными в сельских районах Синьцзяна, а в четырех округах на юге СУАР доступно бесплатное 15-летнее образование, отметил Ма Синжуй.Помимо этого, за указанный период Синьцзян всесторонне реализовывал этническую политику КПК, способствуя широкому обмену и интеграции между представителями всех этнических групп.Председатель правительства СУАР Эркин Тунияз, в свою очередь, сообщил, что Синьцзян продолжает развивать центральную зону Экономического пояса Шелкового пути и укреплять торгово-экономические связи со странами, расположенными вдоль "Пояса и пути".По его словам, СУАР подписал 21 соглашение о сотрудничестве с 25 странами и международными организациями и установил торгово-экономические отношения со 176 странами и регионами мира. --0--</t>
+  </si>
+  <si>
+    <t>Урумчи, 15 июля /Синьхуа/ -- Генеральный секретарь ЦК КПК Си Цзиньпин во второй половине четверга в рамках инспекционной поездки по Синьцзян-Уйгурскому автономному району на северо-западе Китая посетил город Турфан.</t>
+  </si>
+  <si>
     <t>За первые восемь месяцев 2022 года через КПП Алашанькоу и Хоргос, расположенные на территории Синьцзян-Уйгурского автономного района /Северо-Западный Китай/, прошел 8 701 грузовой поезд, следовавший по маршрутам международных ж/д грузоперевозок Китай-Европа. Это придало огромный импульс внешней торговле Синьцзяна.</t>
   </si>
   <si>
-    <t>Урумчи, 27 августа /Синьхуа/ -- На протяжении последних 10 лет Синьцзян-Уйгурский автономный район /СУАР, Северо-западный Китай/ добивается постоянного прогресса в социальном развитии и улучшении благосостояния населения. Об этом на прошедшей сегодня пресс-конференции сообщил партийный комитет СУАР.В 2021 году валовой региональный продукт /ВРП/ Синьцзяна достиг почти 1,6 трлн юаней /около 232,8 млрд долларов США/, что вдвое больше, чем в 2012 году, заявил секретарь комитета КПК СУАР Ма Синжуй. За последнее десятилетие более 70 проц бюджетных расходов района было направлено на повышение уровня жизни людей, продолжил он.Трехлетнее дошкольное образование и девятилетнее обязательное образование являются бесплатными в сельских районах Синьцзяна, а в четырех округах на юге СУАР доступно бесплатное 15-летнее образование, отметил Ма Синжуй.Помимо этого, за указанный период Синьцзян всесторонне реализовывал этническую политику КПК, способствуя широкому обмену и интеграции между представителями всех этнических групп.Председатель правительства СУАР Эркин Тунияз, в свою очередь, сообщил, что Синьцзян продолжает развивать центральную зону Экономического пояса Шелкового пути и укреплять торгово-экономические связи со странами, расположенными вдоль "Пояса и пути".По его словам, СУАР подписал 21 соглашение о сотрудничестве с 25 странами и международными организациями и установил торгово-экономические отношения со 176 странами и регионами мира.</t>
-  </si>
-  <si>
-    <t>Урумчи, 20 июля /Синьхуа/ -- Приток инвестиций в Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ продемонстрировал стабильный рост в первой половине 2022 года. Об этом сообщило Управление коммерции СУАР.Как отметило управление, всего в регион было привлечено почти 355,3 млрд юаней /около 52,7 млрд долларов США/, что на 37 проц больше, чем за аналогичный период прошлого года.Успехи, достигнутые в привлечении инвестиций за первое полугодие, объясняются эффективным использованием рыночных методов и инновационных способов привлечения инвестиций различными районами и ведомствами, заявили в управлении.Управление выразило готовность к дальнейшему улучшению инвестиционного климата в Синьцзяне.</t>
-  </si>
-  <si>
-    <t>В первом полугодии объем инвестиций в Синьцзян превысил 355 млрд юаней. /Фото: Синьхуа/Урумчи, 20 июля /Синьхуа/ -- Приток инвестиций в Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ продемонстрировал стабильный рост в первой половине 2022 года. Об этом сообщило Управление коммерции СУАР.Как отметило управление, всего в регион было привлечено почти 355,3 млрд юаней /около 52,7 млрд долларов США/, что на 37 проц больше, чем за аналогичный период прошлого года.Успехи, достигнутые в привлечении инвестиций за первое полугодие, объясняются эффективным использованием рыночных методов и инновационных способов привлечения инвестиций различными районами и ведомствами, заявили в управлении.Управление выразило готовность к дальнейшему улучшению инвестиционного климата в Синьцзяне. --0--</t>
-  </si>
-  <si>
-    <t>Синьцзян продолжает добиваться успехов в социальном развитии и улучшении благосостояния населения. /Фото: Синьхуа/Урумчи, 27 августа /Синьхуа/ -- На протяжении последних 10 лет Синьцзян-Уйгурский автономный район /СУАР, Северо-западный Китай/ добивается постоянного прогресса в социальном развитии и улучшении благосостояния населения. Об этом на прошедшей сегодня пресс-конференции сообщил партийный комитет СУАР.В 2021 году валовой региональный продукт /ВРП/ Синьцзяна достиг почти 1,6 трлн юаней /около 232,8 млрд долларов США/, что вдвое больше, чем в 2012 году, заявил секретарь комитета КПК СУАР Ма Синжуй. За последнее десятилетие более 70 проц бюджетных расходов района было направлено на повышение уровня жизни людей, продолжил он.Трехлетнее дошкольное образование и девятилетнее обязательное образование являются бесплатными в сельских районах Синьцзяна, а в четырех округах на юге СУАР доступно бесплатное 15-летнее образование, отметил Ма Синжуй.Помимо этого, за указанный период Синьцзян всесторонне реализовывал этническую политику КПК, способствуя широкому обмену и интеграции между представителями всех этнических групп.Председатель правительства СУАР Эркин Тунияз, в свою очередь, сообщил, что Синьцзян продолжает развивать центральную зону Экономического пояса Шелкового пути и укреплять торгово-экономические связи со странами, расположенными вдоль "Пояса и пути".По его словам, СУАР подписал 21 соглашение о сотрудничестве с 25 странами и международными организациями и установил торгово-экономические отношения со 176 странами и регионами мира. --0--</t>
-  </si>
-  <si>
-    <t>Урумчи, 15 июля /Синьхуа/ -- Генеральный секретарь ЦК КПК Си Цзиньпин во второй половине четверга в рамках инспекционной поездки по Синьцзян-Уйгурскому автономному району на северо-западе Китая посетил город Турфан.Си Цзиньпин посетил Виноградную долину, а также одну из местных деревень и руины древнего города Цзяохэ, чтобы ознакомиться с местными усилиями по развитию специфических производств, продвижению подъема села, а также сохранению и использованию культурного наследия.</t>
-  </si>
-  <si>
-    <t>Третья скоростная автомагистраль, соединяющая Синьцзян с другими регионами Китая,открылась для движения.</t>
-  </si>
-  <si>
     <t>Урумчи, 7 августа /Синьхуа/ -- Дипломатические представители 30 исламских стран, аккредитованные в Китае, с 1 по 5 августа посетили Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ по приглашению Министерства иностранных дел КНР.Дипломаты из Алжира, Саудовской Аравии, Ирака, Йемена, Пакистана и других стран посетили г. Урумчи /адм. центр Синьцзян-Уйгурского АР/, округа Кашгар и Аксу, ознакомившись с экономическим и социальным развитием района.Во время посещения они засвидетельствовали достижения Синьцзяна в вопросах обеспечения социальной стабильности, экономического развития, улучшения благосостояния людей, религиозной гармонии и культурного процветания, а также выразили надежду на углубление обменов и сотрудничества с Синьцзяном."Фрукты здесь такие сладкие, как и жизнь местных жителей", - сказал посол Алжира в Китае Хассан Рабехи, добавив, что этот визит позволил ему узнать реальное положение дел в Синьцзяне, где права представителей всех этнических групп хорошо защищены.По его словам, Алжир надеется на расширение сотрудничества с Синьцзяном в сфере инфраструктурного строительства, развития современного сельского хозяйства, образования и научных исследований.Посол Саудовской Аравии в Китае Абдуррахман Ахмад Х. Аль Харби заявил, что достижения Синьцзяна замечательны, а его связи с миром становятся все теснее.По его словам, Саудовская Аравия готова продолжать укреплять сотрудничество с Синьцзяном, эффективно использовать преимущества обеих сторон и больше инвестировать в технологии, знания и другие сферы.Посол Брунея в Китае Пехин Дато Рахмани заявил, что после многолетних усилий Синьцзян добился выдающихся успехов в развитии. Люди всех национальностей живут здесь в согласии, пользуются свободой вероисповедания, и их уровень жизни продолжает повышаться.</t>
   </si>
   <si>
-    <t>Урумчи, 15 июля /Синьхуа/ -- Генеральный секретарь ЦК КПК Си Цзиньпин во второй половине четверга в рамках инспекционной поездки по Синьцзян-Уйгурскому автономному району на северо-западе Китая посетил город Турфан.</t>
+    <t>Урумчи, 15 июля /Синьхуа/ -- Генеральный секретарь ЦК КПК Си Цзиньпин посетил город Шихэцзы во второй половине среды во время инспекционной поездки по Синьцзян-Уйгурскому автономному району на северо-западе Китая.</t>
+  </si>
+  <si>
+    <t>Урумчи, 15 июля /Синьхуа/ -- Генеральный секретарь ЦК КПК Си Цзиньпин с визитом находился в городе Шихэцзы во второй половине среды во время инспекционной поездки по Синьцзян-Уйгурскому автономному району на северо-западе Китая.Си Цзиньпин здесь посетил Музей освоения земель Синьцзянского производственно-строительного корпуса /СПСК/ и 143-й полк 8-й дивизии СПСК.Си Цзиньпин ознакомился с историей СПСК об освоении пустующих пограничных земель и охране госграницы страны, а также с ситуацией по работе СПСК в таких аспектах, как укрепление строительства низовых организаций, развитие специфического сельского хозяйства и содействие интегрированному развитию корпуса и местных районов.</t>
+  </si>
+  <si>
+    <t>Урумчи, 29 июня /Синьхуа/ -- По состоянию на 28 июня объем железнодорожных грузовых перевозок в Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/ превысил 100 млн тонн в 2022 году. Это означает, что Синьцзян достиг поставленной цели на 21 день раньше, чем в прошлом году, сообщили местные власти.Согласно плану, объем железнодорожных грузоперевозок в Синьцзяне в 2022 году составит 153,45 млн тонн, отметили в урумчийском отделении корпорации "Китайские железные дороги".В целях обеспечения перевозки угля в период продолжающегося пика энергопотребления железнодорожное ведомство Синьцзяна составило приоритетный список местных производителей электроэнергии в соответствии с их минимальными запасами и расстоянием транспортировки.В 2021 году в Синьцзяне стартовал двухэтапный проект по реконструкции ключевой железнодорожной магистрали для транспортировки угля, которая соединяет Урумчи /адм. центр СУАР/ с угледобывающим районом на севере Синьцзяна.Ожидается, что пропускная способность упомянутой железной дороги удвоится после завершения проекта.</t>
+  </si>
+  <si>
+    <t>Си Цзиньпин посетил Урумчийский международный сухопутный порт. /Фото: Синьхуа/Урумчи, 14 июля /Синьхуа/ -- По мере продвижения сотрудничества в рамках инициативы "Пояс и путь" Синьцзян перестал быть отдаленным уголком, превратившись в ключевой район и узловой центр. Об этом заявил генеральный секретарь ЦК КПК Си Цзиньпин.Он сделал такое заявление 12 июля во второй половине дня во время посещения Урумчийского международного сухопутного порта в городе Урумчи, административном центре Синьцзян-Уйгурского автономного района /Северо-Западный Китай/.Си Цзиньпин отметил, что с момента выдвижения инициативы "Пояс и путь" был достигнут значительный прогресс.Он сказал сотрудникам сухопутного порта, что их работа имеет огромное значение.Признав уже достигнутые успехи, Си Цзиньпин призвал их упорно трудиться для достижения еще большего прогресса.</t>
+  </si>
+  <si>
+    <t>Урумчи, 18 июня /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ расширяет инвестирование в свой энергетический сектор, стремясь укрепить свой статус ключевой энергетической базы страны.СУАР стремится полностью задействовать свои передовые и высококачественные мощности по добыче угля, чтобы к 2025 году выйти на уровень производства более 400 млн тонн угля.Будучи важной базой экологически чистой энергии в Китае, Синьцзян поставил перед собой цель в течение года увеличить мощность возобновляемых источников энергии на 15 млн кВт. В то же время Синьцзян прилагает большие усилия для укрепления главной энергетической сети.Синьцзян активизировал разведку и разработку нефти и газа в бассейнах Тарим, Джунгар и Турфан-Хами, а также сланцевых месторождений в уезде Джимсар.В 2021 году производство энергии в Синьцзяне значительно увеличилось: из автономного района было передано в другие регионы страны 122,3 млрд кВт-ч электроэнергии и поставлено 43,87 млн тонн угля, что внесло важный вклад в обеспечение энергетической безопасности страны.</t>
   </si>
   <si>
     <t>Урумчи, 14 июля /Синьхуа/ -- По мере продвижения сотрудничества в рамках инициативы "Пояс и путь" Синьцзян перестал быть отдаленным уголком, превратившись в ключевой район и узловой центр. Об этом заявил генеральный секретарь ЦК КПК Си Цзиньпин.Он сделал такое заявление 12 июля во второй половине дня во время посещения Урумчийского международного сухопутного порта в городе Урумчи, административном центре Синьцзян-Уйгурского автономного района /Северо-Западный Китай/.Си Цзиньпин отметил, что с момента выдвижения инициативы "Пояс и путь" был достигнут значительный прогресс.Он сказал сотрудникам сухопутного порта, что их работа имеет огромное значение.Признав уже достигнутые успехи, Си Цзиньпин призвал их упорно трудиться для достижения еще большего прогресса.</t>
   </si>
   <si>
-    <t>Урумчи, 15 июля /Синьхуа/ -- Генеральный секретарь ЦК КПК Си Цзиньпин с визитом находился в городе Шихэцзы во второй половине среды во время инспекционной поездки по Синьцзян-Уйгурскому автономному району на северо-западе Китая.Си Цзиньпин здесь посетил Музей освоения земель Синьцзянского производственно-строительного корпуса /СПСК/ и 143-й полк 8-й дивизии СПСК.Си Цзиньпин ознакомился с историей СПСК об освоении пустующих пограничных земель и охране госграницы страны, а также с ситуацией по работе СПСК в таких аспектах, как укрепление строительства низовых организаций, развитие специфического сельского хозяйства и содействие интегрированному развитию корпуса и местных районов.</t>
-  </si>
-  <si>
-    <t>Урумчи, 15 июля /Синьхуа/ -- Генеральный секретарь ЦК КПК Си Цзиньпин посетил город Шихэцзы во второй половине среды во время инспекционной поездки по Синьцзян-Уйгурскому автономному району на северо-западе Китая.</t>
-  </si>
-  <si>
-    <t>Урумчи, 18 июня /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ расширяет инвестирование в свой энергетический сектор, стремясь укрепить свой статус ключевой энергетической базы страны.СУАР стремится полностью задействовать свои передовые и высококачественные мощности по добыче угля, чтобы к 2025 году выйти на уровень производства более 400 млн тонн угля.Будучи важной базой экологически чистой энергии в Китае, Синьцзян поставил перед собой цель в течение года увеличить мощность возобновляемых источников энергии на 15 млн кВт. В то же время Синьцзян прилагает большие усилия для укрепления главной энергетической сети.Синьцзян активизировал разведку и разработку нефти и газа в бассейнах Тарим, Джунгар и Турфан-Хами, а также сланцевых месторождений в уезде Джимсар.В 2021 году производство энергии в Синьцзяне значительно увеличилось: из автономного района было передано в другие регионы страны 122,3 млрд кВт-ч электроэнергии и поставлено 43,87 млн тонн угля, что внесло важный вклад в обеспечение энергетической безопасности страны.</t>
-  </si>
-  <si>
-    <t>Урумчи, 29 июня /Синьхуа/ -- По состоянию на 28 июня объем железнодорожных грузовых перевозок в Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/ превысил 100 млн тонн в 2022 году. Это означает, что Синьцзян достиг поставленной цели на 21 день раньше, чем в прошлом году, сообщили местные власти.Согласно плану, объем железнодорожных грузоперевозок в Синьцзяне в 2022 году составит 153,45 млн тонн, отметили в урумчийском отделении корпорации "Китайские железные дороги".В целях обеспечения перевозки угля в период продолжающегося пика энергопотребления железнодорожное ведомство Синьцзяна составило приоритетный список местных производителей электроэнергии в соответствии с их минимальными запасами и расстоянием транспортировки.В 2021 году в Синьцзяне стартовал двухэтапный проект по реконструкции ключевой железнодорожной магистрали для транспортировки угля, которая соединяет Урумчи /адм. центр СУАР/ с угледобывающим районом на севере Синьцзяна.Ожидается, что пропускная способность упомянутой железной дороги удвоится после завершения проекта.</t>
-  </si>
-  <si>
-    <t>Си Цзиньпин посетил Урумчийский международный сухопутный порт. /Фото: Синьхуа/Урумчи, 14 июля /Синьхуа/ -- По мере продвижения сотрудничества в рамках инициативы "Пояс и путь" Синьцзян перестал быть отдаленным уголком, превратившись в ключевой район и узловой центр. Об этом заявил генеральный секретарь ЦК КПК Си Цзиньпин.Он сделал такое заявление 12 июля во второй половине дня во время посещения Урумчийского международного сухопутного порта в городе Урумчи, административном центре Синьцзян-Уйгурского автономного района /Северо-Западный Китай/.Си Цзиньпин отметил, что с момента выдвижения инициативы "Пояс и путь" был достигнут значительный прогресс.Он сказал сотрудникам сухопутного порта, что их работа имеет огромное значение.Признав уже достигнутые успехи, Си Цзиньпин призвал их упорно трудиться для достижения еще большего прогресса.</t>
+    <t>Сегодня отмечается 28-й по счету Всемирный день борьбы с опустыниванием и засухой. Уезд Макит Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ расположен на юго-западной окраине пустыни Такла-Макан - второй по величине передвигающейся пустыни мира. За последние десять лет, за счет лесопосадок в этом уезде на территории площадью 460 тыс. му /около 30,67 тыс. га/ был постепенно создан "зеленый барьер".</t>
+  </si>
+  <si>
+    <t>Урумчи, 26 мая /Синьхуа/ -- За первые четыре месяца 2022 года Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ привлек из других регионов страны инвестиции в размере 115,9 млрд юаней /около 17,2 млрд долл. США/, что на 27,29 проц. больше прошлогоднего аналогичного показателя, заявили в управлении коммерции СУАР.В том числе, в январе-апреле в южной части Синьцзяна было инвестировано на 28,03 проц. больше, чем годом ранее, а объем капиталовложений в северной части СУАР вырос на 26,73 проц. в годовом исчислении.Согласно статистике, в январе-апреле этого года в Синьцзяне было подписано 2 367 инвестиционных проектов.Во многих местах Синьцзяна проводили различные мероприятия, такие как онлайн-продвижение инвестиций, а также направляли команды в другие районы страны для привлечения инвестиций. В СУАР прилагают постоянные усилия для оптимизации бизнес-среды и улучшения качества инвестиционных проектов.В этом году в зону технико-экономического развития в синьцзянском городе Корла было привлечено около 3 600 предприятий благодаря целенаправленным мероприятиям по привлечению инвестиций.</t>
+  </si>
+  <si>
+    <t>11 января 2022 года, сотрудник работает в компании по производству электроники в индустриальном парке в уезде Моюй Синьцзян-Уйгурского автономного района на северо-западе Китая. /Фото: Синьхуа/Урумчи, 26 мая /Синьхуа/ -- За первые четыре месяца 2022 года Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ привлек из других регионов страны инвестиции в размере 115,9 млрд юаней /около 17,2 млрд долл. США/, что на 27,29 проц. больше прошлогоднего аналогичного показателя, заявили в управлении коммерции СУАР.В том числе, в январе-апреле в южной части Синьцзяна было инвестировано на 28,03 проц. больше, чем годом ранее, а объем капиталовложений в северной части СУАР вырос на 26,73 проц. в годовом исчислении.Согласно статистике, в январе-апреле этого года в Синьцзяне было подписано 2 367 инвестиционных проектов.Во многих местах Синьцзяна проводили различные мероприятия, такие как онлайн-продвижение инвестиций, а также направляли команды в другие районы страны для привлечения инвестиций. В СУАР прилагают постоянные усилия для оптимизации бизнес-среды и улучшения качества инвестиционных проектов.В этом году в зону технико-экономического развития в синьцзянском городе Корла было привлечено около 3 600 предприятий благодаря целенаправленным мероприятиям по привлечению инвестиций.</t>
+  </si>
+  <si>
+    <t>Пекин, 24 мая /Синьхуа/ -- Китай сегодня опроверг так называемые опасения США и Великобритании относительно визита Верховного комиссара ООН по правам человека Мишель Бачелет в Китай.Эти страны действительно беспокоит то, что их попытки использовать так называемый "синьцзянский вопрос" для сдерживания Китая с треском провалятся после того, как международное сообщество увидит реальную ситуацию в Синьцзян-Уйгурском автономном районе /Северо-Западный Китай/, заявил официальный представитель МИД КНР Ван Вэньбинь на ежедневной пресс-конференции.Комментируя "беспокойство" пресс-секретаря Госдепартамента США Неда Прайса по поводу визита М. Бачелет, он указал, что в течение некоторого времени западные страны, такие как США и Великобритания, устраивали один политический фарс за другим вокруг поездки Верховного комиссара ООН в Китай.Вначале они публично оказывали давление на Верховного комиссара ООН, чтобы та посетила Китай и провела так называемое "расследование", основанное на презумпции виновности, обратил внимание Ван Вэньбинь.Затем, после того, как КНР и Управление Верховного комиссара ООН по правам человека окончательно согласовали визит посредством равноправных консультаций, эти страны снова выскочили вперед и не жалели усилий, чтобы саботировать визит, давая указания и создавая различные условия и препятствия для его проведения, продолжил он."Действительно ли они заботятся о правах человека, или же просто хотят политизировать этот вопрос и использовать его как оружие против Китая?", -- спросил китайский дипломат.Представитель ведомства отметил, что этим странам совершенно нет дела до истины, они пытаются воспользоваться визитом М. Бачелет, чтобы раздуть так называемый "синьцзянский вопрос" и очернить Китай. "Их действительно беспокоит то, что, когда представители международного сообщества, включая Верховного комиссара ООН, увидят реальную ситуацию в Синьцзяне, их сфабрикованная ложь и слухи будут развенчаны, а их попытки сдержать Китай с помощью так называемого "синьцзянского вопроса" потерпят крах", -- подчеркнул Ван Вэньбинь.</t>
+  </si>
+  <si>
+    <t>Урумчи, 20 апреля /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ совместно с посольством КНР в Султанате Оман во вторник провели видеоконференцию, чтобы поделиться информацией о социально-экономическом развитии региона с гостями из Омана.Встреча в формате видеоконференции проходила в городе Урумчи - административном центре СУАР. Во время мероприятия зампредседателя районного правительства Нурем Симайхан сообщил, что в течение пяти лет подряд в Синьцзяне не было зарегистрировано ни одного случая террористического акта, добавив, что чувства обретения, счастья и безопасности представителей всех этнических групп постоянно усиливаются.Посол Китая в Омане Ли Линбин выступила с видеообращением, в ходе которого она сказала, что некоторые западные антикитайские силы пытаются заклеймить Синьцзян как регион "геноцида", "принудительного труда" и "религиозного угнетения", при этом их истинная цель состоит в том, чтобы использовать Синьцзян для раскола Китая и препятствования развитию и прогрессу страны.Хлопковод Рехеман Юнус из уезда Юйли рассказал по видеосвязи, что с помощью большой сеялки точного высева он смог всего за два дня посеять семена и уложить пластиковую пленку и капельные ленты для орошения хлопкового поля площадью 530 му /около 35,3 га/. После того, как хлопок прорастет, деревенский кооператив будет регулярно отправлять беспилотники для распыления пестицидов, добавил он."В прошлом году урожай хлопка на моем участке составил более 430 кг с одного му, а мой общий доход превысил 1,1 млн юаней /около 172 тыс. долл. США/", - сообщил Рехеман Юнус.Абдухабир Турсонгмамат, имам мечети в уезде Хотан, история которой насчитывает более 900 лет, сообщил по видеосвязи, что в последние годы правительство отремонтировало мечеть, оборудовав ее кондиционерами, средствами пожаротушения и аппаратами с питьевой водой, также была построена новая комната для омовения и установлены туалеты со смывом.По его словам, общая площадь мечети была расширена почти до 3 200 кв. м, и теперь она может вместить сотни верующих.Абдухабир Турсонгмамат также добавил, что в месяц Рамадан мусульмане в Синьцзяне традиционно придерживаются поста и молятся."Мы тепло приветствуем всех желающих посетить Синьцзян и стать свидетелями его гармонии, стабильности и энергичного развития", - сказал Нурим Симайхан.</t>
+  </si>
+  <si>
+    <t>Посмотрите это видео, чтобы узнать историю жительницы Синьцзян-Уйгурского АР, владеющей техникой вышивания, которая передается из поколения в поколение и является нематериальным культурным наследием.</t>
+  </si>
+  <si>
+    <t>Печеные булочки с начинкой "баоцзы" являются изюминкой синьцзянской кухни. В одном из детских садов Чанцзи-Хуэйского автономного округа Синьцзян-Уйгурского автономного района учительница-уйгурка учит детей готовить "баоцзы".</t>
   </si>
   <si>
     <t>Мерием - воспитательница детского сада в городе Хами Синьцзян-Уйгурского автономного района на северо-западе Китая. Ей нравится вести уроки музыки, от которых дети получают массу удовольствия.</t>
   </si>
   <si>
-    <t>Посмотрите это видео, чтобы узнать историю жительницы Синьцзян-Уйгурского АР, владеющей техникой вышивания, которая передается из поколения в поколение и является нематериальным культурным наследием.</t>
-  </si>
-  <si>
-    <t>Урумчи, 20 апреля /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ совместно с посольством КНР в Султанате Оман во вторник провели видеоконференцию, чтобы поделиться информацией о социально-экономическом развитии региона с гостями из Омана.Встреча в формате видеоконференции проходила в городе Урумчи - административном центре СУАР. Во время мероприятия зампредседателя районного правительства Нурем Симайхан сообщил, что в течение пяти лет подряд в Синьцзяне не было зарегистрировано ни одного случая террористического акта, добавив, что чувства обретения, счастья и безопасности представителей всех этнических групп постоянно усиливаются.Посол Китая в Омане Ли Линбин выступила с видеообращением, в ходе которого она сказала, что некоторые западные антикитайские силы пытаются заклеймить Синьцзян как регион "геноцида", "принудительного труда" и "религиозного угнетения", при этом их истинная цель состоит в том, чтобы использовать Синьцзян для раскола Китая и препятствования развитию и прогрессу страны.Хлопковод Рехеман Юнус из уезда Юйли рассказал по видеосвязи, что с помощью большой сеялки точного высева он смог всего за два дня посеять семена и уложить пластиковую пленку и капельные ленты для орошения хлопкового поля площадью 530 му /около 35,3 га/. После того, как хлопок прорастет, деревенский кооператив будет регулярно отправлять беспилотники для распыления пестицидов, добавил он."В прошлом году урожай хлопка на моем участке составил более 430 кг с одного му, а мой общий доход превысил 1,1 млн юаней /около 172 тыс. долл. США/", - сообщил Рехеман Юнус.Абдухабир Турсонгмамат, имам мечети в уезде Хотан, история которой насчитывает более 900 лет, сообщил по видеосвязи, что в последние годы правительство отремонтировало мечеть, оборудовав ее кондиционерами, средствами пожаротушения и аппаратами с питьевой водой, также была построена новая комната для омовения и установлены туалеты со смывом.По его словам, общая площадь мечети была расширена почти до 3 200 кв. м, и теперь она может вместить сотни верующих.Абдухабир Турсонгмамат также добавил, что в месяц Рамадан мусульмане в Синьцзяне традиционно придерживаются поста и молятся."Мы тепло приветствуем всех желающих посетить Синьцзян и стать свидетелями его гармонии, стабильности и энергичного развития", - сказал Нурим Симайхан.</t>
-  </si>
-  <si>
-    <t>Сегодня отмечается 28-й по счету Всемирный день борьбы с опустыниванием и засухой. Уезд Макит Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ расположен на юго-западной окраине пустыни Такла-Макан - второй по величине передвигающейся пустыни мира. За последние десять лет, за счет лесопосадок в этом уезде на территории площадью 460 тыс. му /около 30,67 тыс. га/ был постепенно создан "зеленый барьер".</t>
-  </si>
-  <si>
-    <t>11 января 2022 года, сотрудник работает в компании по производству электроники в индустриальном парке в уезде Моюй Синьцзян-Уйгурского автономного района на северо-западе Китая. /Фото: Синьхуа/Урумчи, 26 мая /Синьхуа/ -- За первые четыре месяца 2022 года Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ привлек из других регионов страны инвестиции в размере 115,9 млрд юаней /около 17,2 млрд долл. США/, что на 27,29 проц. больше прошлогоднего аналогичного показателя, заявили в управлении коммерции СУАР.В том числе, в январе-апреле в южной части Синьцзяна было инвестировано на 28,03 проц. больше, чем годом ранее, а объем капиталовложений в северной части СУАР вырос на 26,73 проц. в годовом исчислении.Согласно статистике, в январе-апреле этого года в Синьцзяне было подписано 2 367 инвестиционных проектов.Во многих местах Синьцзяна проводили различные мероприятия, такие как онлайн-продвижение инвестиций, а также направляли команды в другие районы страны для привлечения инвестиций. В СУАР прилагают постоянные усилия для оптимизации бизнес-среды и улучшения качества инвестиционных проектов.В этом году в зону технико-экономического развития в синьцзянском городе Корла было привлечено около 3 600 предприятий благодаря целенаправленным мероприятиям по привлечению инвестиций.</t>
-  </si>
-  <si>
-    <t>Пекин, 24 мая /Синьхуа/ -- Китай сегодня опроверг так называемые опасения США и Великобритании относительно визита Верховного комиссара ООН по правам человека Мишель Бачелет в Китай.Эти страны действительно беспокоит то, что их попытки использовать так называемый "синьцзянский вопрос" для сдерживания Китая с треском провалятся после того, как международное сообщество увидит реальную ситуацию в Синьцзян-Уйгурском автономном районе /Северо-Западный Китай/, заявил официальный представитель МИД КНР Ван Вэньбинь на ежедневной пресс-конференции.Комментируя "беспокойство" пресс-секретаря Госдепартамента США Неда Прайса по поводу визита М. Бачелет, он указал, что в течение некоторого времени западные страны, такие как США и Великобритания, устраивали один политический фарс за другим вокруг поездки Верховного комиссара ООН в Китай.Вначале они публично оказывали давление на Верховного комиссара ООН, чтобы та посетила Китай и провела так называемое "расследование", основанное на презумпции виновности, обратил внимание Ван Вэньбинь.Затем, после того, как КНР и Управление Верховного комиссара ООН по правам человека окончательно согласовали визит посредством равноправных консультаций, эти страны снова выскочили вперед и не жалели усилий, чтобы саботировать визит, давая указания и создавая различные условия и препятствия для его проведения, продолжил он."Действительно ли они заботятся о правах человека, или же просто хотят политизировать этот вопрос и использовать его как оружие против Китая?", -- спросил китайский дипломат.Представитель ведомства отметил, что этим странам совершенно нет дела до истины, они пытаются воспользоваться визитом М. Бачелет, чтобы раздуть так называемый "синьцзянский вопрос" и очернить Китай. "Их действительно беспокоит то, что, когда представители международного сообщества, включая Верховного комиссара ООН, увидят реальную ситуацию в Синьцзяне, их сфабрикованная ложь и слухи будут развенчаны, а их попытки сдержать Китай с помощью так называемого "синьцзянского вопроса" потерпят крах", -- подчеркнул Ван Вэньбинь.</t>
-  </si>
-  <si>
-    <t>Печеные булочки с начинкой "баоцзы" являются изюминкой синьцзянской кухни. В одном из детских садов Чанцзи-Хуэйского автономного округа Синьцзян-Уйгурского автономного района учительница-уйгурка учит детей готовить "баоцзы".</t>
-  </si>
-  <si>
-    <t>Урумчи, 26 мая /Синьхуа/ -- За первые четыре месяца 2022 года Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ привлек из других регионов страны инвестиции в размере 115,9 млрд юаней /около 17,2 млрд долл. США/, что на 27,29 проц. больше прошлогоднего аналогичного показателя, заявили в управлении коммерции СУАР.В том числе, в январе-апреле в южной части Синьцзяна было инвестировано на 28,03 проц. больше, чем годом ранее, а объем капиталовложений в северной части СУАР вырос на 26,73 проц. в годовом исчислении.Согласно статистике, в январе-апреле этого года в Синьцзяне было подписано 2 367 инвестиционных проектов.Во многих местах Синьцзяна проводили различные мероприятия, такие как онлайн-продвижение инвестиций, а также направляли команды в другие районы страны для привлечения инвестиций. В СУАР прилагают постоянные усилия для оптимизации бизнес-среды и улучшения качества инвестиционных проектов.В этом году в зону технико-экономического развития в синьцзянском городе Корла было привлечено около 3 600 предприятий благодаря целенаправленным мероприятиям по привлечению инвестиций.</t>
-  </si>
-  <si>
     <t>3 апреля 2022 года, трактор, работающий в хлопковом поле, во время весенних сельскохозяйственных работ в городе Корла Синьцзян-Уйгурского АР /Северо-Западный Китай/. /Фото: Синьхуа/Урумчи, 20 апреля /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ совместно с посольством КНР в Султанате Оман во вторник провели видеоконференцию, чтобы поделиться информацией о социально-экономическом развитии региона с гостями из Омана.Встреча в формате видеоконференции проходила в городе Урумчи - административном центре СУАР. Во время мероприятия зампредседателя районного правительства Нурем Симайхан сообщил, что в течение пяти лет подряд в Синьцзяне не было зарегистрировано ни одного случая террористического акта, добавив, что чувства обретения, счастья и безопасности представителей всех этнических групп постоянно усиливаются.Посол Китая в Омане Ли Линбин выступила с видеообращением, в ходе которого она сказала, что некоторые западные антикитайские силы пытаются заклеймить Синьцзян как регион "геноцида", "принудительного труда" и "религиозного угнетения", при этом их истинная цель состоит в том, чтобы использовать Синьцзян для раскола Китая и препятствования развитию и прогрессу страны.Хлопковод Рехеман Юнус из уезда Юйли рассказал по видеосвязи, что с помощью большой сеялки точного высева он смог всего за два дня посеять семена и уложить пластиковую пленку и капельные ленты для орошения хлопкового поля площадью 530 му /около 35,3 га/. После того, как хлопок прорастет, деревенский кооператив будет регулярно отправлять беспилотники для распыления пестицидов, добавил он."В прошлом году урожай хлопка на моем участке составил более 430 кг с одного му, а мой общий доход превысил 1,1 млн юаней /около 172 тыс. долл. США/", - сообщил Рехеман Юнус.Абдухабир Турсонгмамат, имам мечети в уезде Хотан, история которой насчитывает более 900 лет, сообщил по видеосвязи, что в последние годы правительство отремонтировало мечеть, оборудовав ее кондиционерами, средствами пожаротушения и аппаратами с питьевой водой, также была построена новая комната для омовения и установлены туалеты со смывом.По его словам, общая площадь мечети была расширена почти до 3 200 кв. м, и теперь она может вместить сотни верующих.Абдухабир Турсонгмамат также добавил, что в месяц Рамадан мусульмане в Синьцзяне традиционно придерживаются поста и молятся."Мы тепло приветствуем всех желающих посетить Синьцзян и стать свидетелями его гармонии, стабильности и энергичного развития", - сказал Нурим Симайхан.</t>
   </si>
   <si>
@@ -871,152 +871,158 @@
     <t>Ниязи Маймаити и ее муж Ниязи были крестьянами со скромными доходами в Синьцзян-Уйгурском автономном районе /Северо-Западный Китай/. Их жизнь становится лучше после того, как они нашли новую работу в автомастерской. Вот их история.</t>
   </si>
   <si>
+    <t>Урумчи, 28 января /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ в прошлом году расширил масштабы кредитования сельскохозяйственных предприятий в целях содействия модернизации сельского хозяйства и стимулирования развития сельских районов, сообщил в четверг филиал Народного банка Китая в Урумчи.Объем остатка задолженности по кредитам, имеющим отношение к сельскому хозяйству, по состоянию на конец 2021 года в Синьцзяне достиг 1,02 трлн юаней /около 160 млрд долл. США/, составив 40,1 проц. общего объема выданных в СУАР всех кредитов, что на 2,3 п. п. больше, чем в 2020 году, свидетельствуют официальные данные.Чтобы закрепить достижения в борьбе с нищетой и содействовать подъему села, финансовые учреждения в Синьцзяне усилили финансовые услуги за счет расширения каналов финансирования, сказал замдиректора вышеуказанного филиала Сюй Кэ.По состоянию на конец 2021 года в Синьцзяне остаток задолженности по кредитам, связанных с сельским хозяйством, вырос на 158,39 млрд юаней по сравнению с началом года.</t>
+  </si>
+  <si>
     <t>Ван И по видеосвязи принял участие в 58-й Мюнхенской конференции по безопасности. /Фото: Синьхуа/Пекин, 19 февраля /Синьхуа/ -- Китай приветствует визит верховного комиссара ООН по правам человека Мишель Бачелет в КНР, который также предполагает поездку в Синьцзян. Об этом сегодня заявил член Госсовета КНР, министр иностранных дел Ван И.Ван И по видеосвязи принял участие в 58-й Мюнхенской конференции по безопасности и сделал вышеуказанное заявление в ответ на вопросы, касающиеся Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/.По словам Ван И, китайская сторона уже давно приветствовала возможный приезд М. Бачелет и в настоящий момент обсуждает с ней и офисом верховного комиссара сроки визита. Глава МИД КНР выразил уверенность, что верховный комиссар ООН по правам человека сможет в ходе своей поездки увидеть мирный и стабильный Синьцзян, где гармонично сосуществуют представители всех этнических групп.Отметив, что Синьцзян граничит с регионом, где сконцентрированы террористические и экстремистские силы, Ван И заявил, что правительство СУАР с целью поддержания безопасности граждан провела работу по дерадикализации посредством образования в соответствии с практикой таких стран, как Великобритания и Франция, и международной практикой.Благодаря подобной работе удалось искоренить питательную почву для экстремизма, и эта работа получила поддержку со стороны жителей Синьцзяна, отметил Ван И. Как он добавил, за последние пять лет в Синьцзяне не было зафиксировано ни одной вспышки терроризма.Утверждения о так называемом систематическом "принудительном труде" или же о "лагерях перевоспитания" носят ложный и сфабрикованный характер, сказал Ван И.По его словам, Китай приглашает иностранцев посетить Синьцзян с тем, чтобы узнать правду о том, как обстоят дела. Он также отметил, что до начала пандемии COVID-19 Синьцзян принял более 2 тыс правительственных чиновников, религиозных деятелей и журналистов из более 100 стран и международных организаций."Однако одна вещь ясна: представители всех этнических групп в Синьцзяне не приветствуют каких бы то ни было расследований, основанных на презумпции вины. Они также решительно выступают против любых форм предубеждений и против безосновательных обвинений в отношении этнической политики Китая", -- сказал Ван И. --0--</t>
   </si>
   <si>
     <t>Пекин, 19 февраля /Синьхуа/ -- Китай приветствует визит верховного комиссара ООН по правам человека Мишель Бачелет в КНР, который также предполагает поездку в Синьцзян. Об этом сегодня заявил член Госсовета КНР, министр иностранных дел Ван И.Ван И по видеосвязи принял участие в 58-й Мюнхенской конференции по безопасности и сделал вышеуказанное заявление в ответ на вопросы, касающиеся Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/.По словам Ван И, китайская сторона уже давно приветствовала возможный приезд М. Бачелет и в настоящий момент обсуждает с ней и офисом верховного комиссара сроки визита. Глава МИД КНР выразил уверенность, что верховный комиссар ООН по правам человека сможет в ходе своей поездки увидеть мирный и стабильный Синьцзян, где гармонично сосуществуют представители всех этнических групп.Отметив, что Синьцзян граничит с регионом, где сконцентрированы террористические и экстремистские силы, Ван И заявил, что правительство СУАР с целью поддержания безопасности граждан провела работу по дерадикализации посредством образования в соответствии с практикой таких стран, как Великобритания и Франция, и международной практикой.Благодаря подобной работе удалось искоренить питательную почву для экстремизма, и эта работа получила поддержку со стороны жителей Синьцзяна, отметил Ван И. Как он добавил, за последние пять лет в Синьцзяне не было зафиксировано ни одной вспышки терроризма.Утверждения о так называемом систематическом "принудительном труде" или же о "лагерях перевоспитания" носят ложный и сфабрикованный характер, сказал Ван И.По его словам, Китай приглашает иностранцев посетить Синьцзян с тем, чтобы узнать правду о том, как обстоят дела. Он также отметил, что до начала пандемии COVID-19 Синьцзян принял более 2 тыс правительственных чиновников, религиозных деятелей и журналистов из более 100 стран и международных организаций."Однако одна вещь ясна: представители всех этнических групп в Синьцзяне не приветствуют каких бы то ни было расследований, основанных на презумпции вины. Они также решительно выступают против любых форм предубеждений и против безосновательных обвинений в отношении этнической политики Китая", -- сказал Ван И.</t>
   </si>
   <si>
-    <t>Урумчи, 28 января /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ в прошлом году расширил масштабы кредитования сельскохозяйственных предприятий в целях содействия модернизации сельского хозяйства и стимулирования развития сельских районов, сообщил в четверг филиал Народного банка Китая в Урумчи.Объем остатка задолженности по кредитам, имеющим отношение к сельскому хозяйству, по состоянию на конец 2021 года в Синьцзяне достиг 1,02 трлн юаней /около 160 млрд долл. США/, составив 40,1 проц. общего объема выданных в СУАР всех кредитов, что на 2,3 п. п. больше, чем в 2020 году, свидетельствуют официальные данные.Чтобы закрепить достижения в борьбе с нищетой и содействовать подъему села, финансовые учреждения в Синьцзяне усилили финансовые услуги за счет расширения каналов финансирования, сказал замдиректора вышеуказанного филиала Сюй Кэ.По состоянию на конец 2021 года в Синьцзяне остаток задолженности по кредитам, связанных с сельским хозяйством, вырос на 158,39 млрд юаней по сравнению с началом года.</t>
-  </si>
-  <si>
     <t>Урумчи, 10 января /Синьхуа/ -- Объем электроэнергии, переданной из Синьцзян-Уйгурского автономного района на северо-западе Китая в другие регионы страны, по итогам 2021 года вырос более чем на 16 проц. в годовом исчислении до рекордных 122 млрд кВт-ч. Об этом свидетельствуют данные синьцзянского отделения Государственной электросетевой корпорации Китая.Проект передачи электроэнергии из Синьцзяна в другие регионы страны был запущен в 2010 году. Ныне он обеспечивает электроснабжение в 20 регионах провинциального уровня.Благодаря дальнейшему увеличению пропускной способности линии электропередачи постоянного тока сверхвысокого напряжения Чанцзи-Гуцюань, основной линии проекта, которая соединяет Синьцзян и пров. Аньхой на востоке Китая, общая мощность передачи электроэнергии из Синьцзяна в другие регионы страны в прошлом году достигла 16,4 млн кВт.За последние 11 лет годовой объем передачи электроэнергии в рамках названного проекта вырос примерно в 40 раз.Синьцзян славится богатыми энергетическими ресурсами, включая ресурсы ветровой и солнечной энергии.</t>
   </si>
   <si>
+    <t>Пекин, 25 декабря /Синьхуа/ -- По принятому на днях ЦК КПК решению, Ма Синжуй был назначен секретарем комитета КПК Синьцзян-Уйгурского автономного района /Северо-Западный Китай/, сменив на этом посту Чэнь Цюаньго. Чэнь Цюаньго будет перемещен на другую должность.</t>
+  </si>
+  <si>
+    <t>22 августа 2021 года, фотоэлектрическая станция в синьцзянском городе Хами. /Фото: Синьхуа/Урумчи, 10 января /Синьхуа/ -- Объем электроэнергии, переданной из Синьцзян-Уйгурского автономного района на северо-западе Китая в другие регионы страны, по итогам 2021 года вырос более чем на 16 проц. в годовом исчислении до рекордных 122 млрд кВт-ч. Об этом свидетельствуют данные синьцзянского отделения Государственной электросетевой корпорации Китая.Проект передачи электроэнергии из Синьцзяна в другие регионы страны был запущен в 2010 году. Ныне он обеспечивает электроснабжение в 20 регионах провинциального уровня.Благодаря дальнейшему увеличению пропускной способности линии электропередачи постоянного тока сверхвысокого напряжения Чанцзи-Гуцюань, основной линии проекта, которая соединяет Синьцзян и пров. Аньхой на востоке Китая, общая мощность передачи электроэнергии из Синьцзяна в другие регионы страны в прошлом году достигла 16,4 млн кВт.За последние 11 лет годовой объем передачи электроэнергии в рамках названного проекта вырос примерно в 40 раз.Синьцзян славится богатыми энергетическими ресурсами, включая ресурсы ветровой и солнечной энергии.</t>
+  </si>
+  <si>
+    <t>19 мая 2019 года, сотрудник Синьцзянского института экологии и географии при Академии наук Китая объясняет детям в г. Урумчи /Синьцзян-Уйгурский АР, Северо-Западный Китай/ принципы работы тестера изотопных функций. /Фото: Синьхуа/Урумчи, 18 декабря /Синьхуа/ -- К 2025 году в южной части Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/ будет построено 100 центров для популяризации научных знаний среди подростков и молодежи в сельских районах.Проект был совместно инициирован в 2019 году Синьцзянским научно-техническим обществом /СНТО/ и пекинской компанией интеллектуальных технологий.К настоящему времени в общей сложности 37 таких центров были созданы в округах Кашгар, Хотан, Аксу, а также в Баянгол-Монгольском автономном округе.В этих центрах подростки и молодежь могут посещать лекции и знакомиться с передовыми технологиями, такими как 3D-печать и искусственный интеллект, сказала глава молодежного научно-технического центра при СНТО Су Хун."Центры предоставляют сельским детям и подросткам возможности для изучения науки, участия в научной практике и практических занятиях", - отметила Су Хун, добавив, что они способствуют формированию атмосферы любви к науке, изучения науки и использования науки в сельской местности.В последние годы СНТО поощряет технологические предприятия и научные организации к взаимодействию с сельскими начальными и средними школами в южной части СУАР в целях оказания им помощи для проведения мероприятий по научно-техническому просвещению для своих учащихся.</t>
+  </si>
+  <si>
     <t>Урумчи, 31 декабря /Синьхуа/ -- Встреча по обмену информацией о прогрессе, достигнутом в области устойчивого социального развития Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/, с участием проживающих за рубежом соотечественников и студентов из Синьцзяна прошла сегодня в видеоформате в городе Урумчи.Как отметил высокопоставленный представитель регионального комитета КПК Ильзат Ахматджан, Синьцзян привержен делу обеспечения социальной гармонии и стабильности, поощрения высококачественного развития экономики, улучшения условий жизни людей, достижения прогресса на благо всех этнических групп и защиты религиозной свободы.Синьцзян ежегодно выделяет более 70 проц. от общих расходов районного бюджета на обеспечение и улучшение жизни своих жителей, за последние пять лет в городах и поселках городского типа СУАР было создано около 2,35 млн новых рабочих мест, заявил на встрече чиновник.По его словам, в Синьцзяне поощряется сбалансированное развитие образовательной системы как в сельской, так и в городской местностях в целях обеспечения равного доступа к обязательному образованию для всех детей, проживающих в районе.В 2020 году подушевой располагаемый доход городских жителей Синьцзяна составил 34838 юаней /около 5466 долларов США/, что в 2,41 раза больше, чем в 2010 году. В тот же год подушевой располагаемый доход сельских жителей достиг 14056 юаней, что в 2,82 раза превысило показатель 2010 года, отметил И.Ахматджан.</t>
   </si>
   <si>
-    <t>22 августа 2021 года, фотоэлектрическая станция в синьцзянском городе Хами. /Фото: Синьхуа/Урумчи, 10 января /Синьхуа/ -- Объем электроэнергии, переданной из Синьцзян-Уйгурского автономного района на северо-западе Китая в другие регионы страны, по итогам 2021 года вырос более чем на 16 проц. в годовом исчислении до рекордных 122 млрд кВт-ч. Об этом свидетельствуют данные синьцзянского отделения Государственной электросетевой корпорации Китая.Проект передачи электроэнергии из Синьцзяна в другие регионы страны был запущен в 2010 году. Ныне он обеспечивает электроснабжение в 20 регионах провинциального уровня.Благодаря дальнейшему увеличению пропускной способности линии электропередачи постоянного тока сверхвысокого напряжения Чанцзи-Гуцюань, основной линии проекта, которая соединяет Синьцзян и пров. Аньхой на востоке Китая, общая мощность передачи электроэнергии из Синьцзяна в другие регионы страны в прошлом году достигла 16,4 млн кВт.За последние 11 лет годовой объем передачи электроэнергии в рамках названного проекта вырос примерно в 40 раз.Синьцзян славится богатыми энергетическими ресурсами, включая ресурсы ветровой и солнечной энергии.</t>
-  </si>
-  <si>
-    <t>Пекин, 25 декабря /Синьхуа/ -- По принятому на днях ЦК КПК решению, Ма Синжуй был назначен секретарем комитета КПК Синьцзян-Уйгурского автономного района /Северо-Западный Китай/, сменив на этом посту Чэнь Цюаньго. Чэнь Цюаньго будет перемещен на другую должность.</t>
-  </si>
-  <si>
     <t>Пекин, 17 декабря /Синьхуа/ -- Соединенные Штаты дошли до истерии в подавлении китайских учреждений и предприятий, но их попытки использовать Синьцзян для сдерживания Китая никогда не увенчаются успехом. Об этом заявил сегодня фициальный представитель МИД КНР Ван Вэньбинь, отвечая на вопрос журналистов о недавних санкциях США, введенных против нескольких китайских фирм в связи с предполагаемыми нарушениями прав человека, и принятии Сенатом США законопроекта о запрете импорта из Синьцзяна /Северо-Западный Китай/.По словам дипломата, США умышленно подавляют китайские учреждения и предприятия, чрезмерно расширяя концепцию национальной безопасности и злоупотребляя мерами экспортного контроля под различными предлогами."США дошли до точки истерии и не остановятся ни перед чем", -- отметил Ван Вэньбинь.Действия США серьезно подорвали принципы рыночной экономики и правила международной торговли, нанесли ущерб интересам китайских учреждений и предприятий, сказал представитель ведомства."Китайская сторона осуждает и выступает против этого", -- подчеркнул он."Мы призываем американскую сторону немедленно исправить свою ошибку. Китай примет все необходимые меры для решительной защиты законных прав и интересов китайских учреждений и компаний", -- добавил Ван Вэньбинь.</t>
   </si>
   <si>
-    <t>19 мая 2019 года, сотрудник Синьцзянского института экологии и географии при Академии наук Китая объясняет детям в г. Урумчи /Синьцзян-Уйгурский АР, Северо-Западный Китай/ принципы работы тестера изотопных функций. /Фото: Синьхуа/Урумчи, 18 декабря /Синьхуа/ -- К 2025 году в южной части Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/ будет построено 100 центров для популяризации научных знаний среди подростков и молодежи в сельских районах.Проект был совместно инициирован в 2019 году Синьцзянским научно-техническим обществом /СНТО/ и пекинской компанией интеллектуальных технологий.К настоящему времени в общей сложности 37 таких центров были созданы в округах Кашгар, Хотан, Аксу, а также в Баянгол-Монгольском автономном округе.В этих центрах подростки и молодежь могут посещать лекции и знакомиться с передовыми технологиями, такими как 3D-печать и искусственный интеллект, сказала глава молодежного научно-технического центра при СНТО Су Хун."Центры предоставляют сельским детям и подросткам возможности для изучения науки, участия в научной практике и практических занятиях", - отметила Су Хун, добавив, что они способствуют формированию атмосферы любви к науке, изучения науки и использования науки в сельской местности.В последние годы СНТО поощряет технологические предприятия и научные организации к взаимодействию с сельскими начальными и средними школами в южной части СУАР в целях оказания им помощи для проведения мероприятий по научно-техническому просвещению для своих учащихся.</t>
-  </si>
-  <si>
     <t>Урумчи, 18 декабря /Синьхуа/ -- К 2025 году в южной части Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/ будет построено 100 центров для популяризации научных знаний среди подростков и молодежи в сельских районах.Проект был совместно инициирован в 2019 году Синьцзянским научно-техническим обществом /СНТО/ и пекинской компанией интеллектуальных технологий.К настоящему времени в общей сложности 37 таких центров были созданы в округах Кашгар, Хотан, Аксу, а также в Баянгол-Монгольском автономном округе.В этих центрах подростки и молодежь могут посещать лекции и знакомиться с передовыми технологиями, такими как 3D-печать и искусственный интеллект, сказала глава молодежного научно-технического центра при СНТО Су Хун."Центры предоставляют сельским детям и подросткам возможности для изучения науки, участия в научной практике и практических занятиях", - отметила Су Хун, добавив, что они способствуют формированию атмосферы любви к науке, изучения науки и использования науки в сельской местности.В последние годы СНТО поощряет технологические предприятия и научные организации к взаимодействию с сельскими начальными и средними школами в южной части СУАР в целях оказания им помощи для проведения мероприятий по научно-техническому просвещению для своих учащихся.</t>
   </si>
   <si>
+    <t>Анкара, 23 октября /Синьхуа/ -- Посольство КНР в Турции и правительство Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/ накануне по видеосвязи из Анкары и Урумчи соответственно провели семинар на тему "Синьцзян -- прекрасное место". В мероприятии в формате видеоконференции приняли участие представители правительства, парламента, политических партий, высших учебных заведений, аналитических центров неправительственных организаций Турции, а также журналисты газеты Sabah,телеканала TV100 и других турецких СМИ.Председатель Постоянного комитета Собрания народных представителей СУАР Шевкет Имин в своем видеообращении подробно рассказал о достижениях в области развития Синьцзяна последних лет и отметив, что район достиг беспрецедентных успехов с точки зрения социально-экономического развития и улучшения условий жизни людей. По его словам, общая социальная ситуация продолжает сохранять стабильность и продолжает улучшаться, экономика вышла на путь высококачественного развития. Была достигнута полная победа над абсолютной бедностью, заметно улучшилась жизнь людей, укрепилось этническое единство, продолжает укрепляться чувство удовлетворения, счастья и безопасности у представителей всех этнических групп Синьцзяна, добавил он.Посол КНР в Турции Лю Шаобинь в своей речи отметил, что Турция -- крупная исламская страна, и многие друзья Китая в Турции заботятся о развитии Синьцзяна. Он выразил надежду, что благодаря мероприятию дружественные представители всех слоев общества Турции получат более полное, глубокое и истинное понимание Синьцзяна, у них появится возможность побывать в СУАР, посмотреть и увидеть своими глазами процветание, стабильность и развитие района. Китайский дипломат также выразил надежду, что друзья из средств массовой информации и аналитических центров проявят мужество и представят турецкому народу реальные и потрясающие изменения в Синьцзяне.Как заявил депутат Великого национального собрания Турции от Народно-республиканской партии Юксель Мансур Кылынч, семинар очень важен для укрепления взаимопонимания между Турцией и Китаем. По его мнению, мир во всем мире неотделим от усилий каждой страны по достижению мира у себя. Усилия Китая по обеспечению общественной безопасности и стабильности заслуживают признания, продолжил он. Юксель Мансур Кылынч неоднократно посещал Синьцзян и был глубоко впечатлен местными красивыми пейзажами, историей и культурой. Он выразил надежду, что каждый желающий сможет поехать в Синьцзян, чтобы взглянуть и стать свидетелем красоты этого района.</t>
+  </si>
+  <si>
     <t>Чжуцзи /пров. Чжэцзян/, 14 ноября /Синьхуа/ -- В матче 13-го тура первого этапа чемпионата Китайской баскетбольной ассоциации /КБА/ сезона 2021-2022 сегодня в городе Чжуцзи /провинция Чжэцзян, Восточный Китай/ БК "Цзилинь Цзютай Нуншан Иньхан" /Jilin Northeast Tigers/ со счетом 88:86 добился победы над БК "Синьцзян Или Ванцзю" /Xinjiang Flying Tigers/.Фотографии Синьхуа/Чэнь Синьбо</t>
   </si>
   <si>
     <t>27 мая 2020 года, дети весело проводят время на "Голубиной аллее" в древнем городке Туаньчэн города Хотан /Синьцзян-Уйгурский автономный район, Северо-Западный Китай/. /Фото: Синьхуа/Урумчи, 8 сентября /Синьхуа/ -- Соответствующие ведомства Синьцзян-Уйгурского автономного района /СУАР/ на северо-западе Китая разработали ряд мер по укреплению здоровья подростков и молодежи.Как стало известно, на днях районное управление физкультуры и спорта и департамент образования СУАР совместно выпустили документ, в котором выдвинули 42 меры по девяти аспектам, включая повышение уровня физического воспитания в школах, совершенствование системы молодежных спортивных соревнований и содействие всесторонней интеграции спорта и образования.Документ призывает увеличить количество уроков физкультуры и рекомендует школам системы базового образования в СУАР проводить по одному уроку физкультуры в день.Бывшим профессиональным спортсменам предлагается работать учителями физкультуры в школах, а общественным организациям и профессиональным учреждениям рекомендуется сотрудничать со школами по вопросам физического воспитания в Синьцзяне, говорится в документе.Эти меры были выдвинуты в рамках усилий, предпринимаемых Китаем в последние недели по снижению большой нагрузки на учащихся для обеспечения справедливости в конкурентной системе образования и всестороннего развития подростков и молодежи.</t>
   </si>
   <si>
+    <t>4 октября 2021 года, пресс-служба администрации г. Хоргос /Синьцзян-Уйгурский автономный район, Северо-Западный Китай/ проводит пресс-конференцию по профилактике и борьбе с COVID-19. /Фото: Синьхуа/Урумчи, 6 октября /Синьхуа/ --  Синьцзян-Уйгурский автономный район на северо-западе Китая сообщил об одном подтвержденном случае заболевания новой коронавирусной инфекцией  COVID-19 во вторник. Об этом в среду сообщили местные власти.По данным регионального штаба по профилактике и контролю COVID-19, речь идет о супруге женщины-бессимптомницы из Хоргоса, о которой сообщалось в воскресенье. Мужчина был доставлен в назначенную больницу для лечения.По состоянию на 17:00 во вторник, в городе завершился второй раунд общегородского тестирования на нуклеиновые кислоты COVID-19. За исключением одного подтвержденного случая, все остальные результаты были отрицательными. Третий раунд тестирования здесь продолжается.В воскресенье Синьцзян сообщил о двух бессимптомных случаях, выявленных во время проведения регулярного тестирования в Хоргосе.</t>
+  </si>
+  <si>
     <t>Урумчи, 1 октября /Синьхуа/ -- Эркин Тунияз в четверг был назначен исполняющим обязанности председателя правительства Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/.Это решение было принято на 29-й сессии Постоянного комитета Собрания народных представителей СУАР 13-го созыва, в ходе которой также была принята отставка Шохрата Закира с поста председателя правительства СУАР.</t>
   </si>
   <si>
     <t>Пекин, 4 октября /Синьхуа/ -- Государственный комитет по делам здравоохранения КНР в понедельник направил рабочую группу для руководства работой по борьбе с эпидемией COVID-19 в Или-Казахский автономный округ Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/.В воскресенье в вышеупомянутом округе было выявлено два бессимптомных носителя коронавируса нового типа.</t>
   </si>
   <si>
-    <t>4 октября 2021 года, пресс-служба администрации г. Хоргос /Синьцзян-Уйгурский автономный район, Северо-Западный Китай/ проводит пресс-конференцию по профилактике и борьбе с COVID-19. /Фото: Синьхуа/Урумчи, 6 октября /Синьхуа/ --  Синьцзян-Уйгурский автономный район на северо-западе Китая сообщил об одном подтвержденном случае заболевания новой коронавирусной инфекцией  COVID-19 во вторник. Об этом в среду сообщили местные власти.По данным регионального штаба по профилактике и контролю COVID-19, речь идет о супруге женщины-бессимптомницы из Хоргоса, о которой сообщалось в воскресенье. Мужчина был доставлен в назначенную больницу для лечения.По состоянию на 17:00 во вторник, в городе завершился второй раунд общегородского тестирования на нуклеиновые кислоты COVID-19. За исключением одного подтвержденного случая, все остальные результаты были отрицательными. Третий раунд тестирования здесь продолжается.В воскресенье Синьцзян сообщил о двух бессимптомных случаях, выявленных во время проведения регулярного тестирования в Хоргосе.</t>
-  </si>
-  <si>
     <t>Урумчи, 8 сентября /Синьхуа/ -- Соответствующие ведомства Синьцзян-Уйгурского автономного района /СУАР/ на северо-западе Китая разработали ряд мер по укреплению здоровья подростков и молодежи.Как стало известно, на днях районное управление физкультуры и спорта и департамент образования СУАР совместно выпустили документ, в котором выдвинули 42 меры по девяти аспектам, включая повышение уровня физического воспитания в школах, совершенствование системы молодежных спортивных соревнований и содействие всесторонней интеграции спорта и образования.Документ призывает увеличить количество уроков физкультуры и рекомендует школам системы базового образования в СУАР проводить по одному уроку физкультуры в день.Бывшим профессиональным спортсменам предлагается работать учителями физкультуры в школах, а общественным организациям и профессиональным учреждениям рекомендуется сотрудничать со школами по вопросам физического воспитания в Синьцзяне, говорится в документе.Эти меры были выдвинуты в рамках усилий, предпринимаемых Китаем в последние недели по снижению большой нагрузки на учащихся для обеспечения справедливости в конкурентной системе образования и всестороннего развития подростков и молодежи.</t>
   </si>
   <si>
-    <t>Анкара, 23 октября /Синьхуа/ -- Посольство КНР в Турции и правительство Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/ накануне по видеосвязи из Анкары и Урумчи соответственно провели семинар на тему "Синьцзян -- прекрасное место". В мероприятии в формате видеоконференции приняли участие представители правительства, парламента, политических партий, высших учебных заведений, аналитических центров неправительственных организаций Турции, а также журналисты газеты Sabah,телеканала TV100 и других турецких СМИ.Председатель Постоянного комитета Собрания народных представителей СУАР Шевкет Имин в своем видеообращении подробно рассказал о достижениях в области развития Синьцзяна последних лет и отметив, что район достиг беспрецедентных успехов с точки зрения социально-экономического развития и улучшения условий жизни людей. По его словам, общая социальная ситуация продолжает сохранять стабильность и продолжает улучшаться, экономика вышла на путь высококачественного развития. Была достигнута полная победа над абсолютной бедностью, заметно улучшилась жизнь людей, укрепилось этническое единство, продолжает укрепляться чувство удовлетворения, счастья и безопасности у представителей всех этнических групп Синьцзяна, добавил он.Посол КНР в Турции Лю Шаобинь в своей речи отметил, что Турция -- крупная исламская страна, и многие друзья Китая в Турции заботятся о развитии Синьцзяна. Он выразил надежду, что благодаря мероприятию дружественные представители всех слоев общества Турции получат более полное, глубокое и истинное понимание Синьцзяна, у них появится возможность побывать в СУАР, посмотреть и увидеть своими глазами процветание, стабильность и развитие района. Китайский дипломат также выразил надежду, что друзья из средств массовой информации и аналитических центров проявят мужество и представят турецкому народу реальные и потрясающие изменения в Синьцзяне.Как заявил депутат Великого национального собрания Турции от Народно-республиканской партии Юксель Мансур Кылынч, семинар очень важен для укрепления взаимопонимания между Турцией и Китаем. По его мнению, мир во всем мире неотделим от усилий каждой страны по достижению мира у себя. Усилия Китая по обеспечению общественной безопасности и стабильности заслуживают признания, продолжил он. Юксель Мансур Кылынч неоднократно посещал Синьцзян и был глубоко впечатлен местными красивыми пейзажами, историей и культурой. Он выразил надежду, что каждый желающий сможет поехать в Синьцзян, чтобы взглянуть и стать свидетелем красоты этого района.</t>
-  </si>
-  <si>
     <t>Урумчи, 6 октября /Синьхуа/ -- Синьцзян-Уйгурский автономный район на северо-западе Китая сообщил об одном подтвержденном случае заболевания новой коронавирусной инфекцией COVID-19 во вторник. Об этом в среду сообщили местные власти.По данным регионального штаба по профилактике и контролю COVID-19, речь идет о супруге женщины-бессимптомницы из Хоргоса, о которой сообщалось в воскресенье. Мужчина был доставлен в назначенную больницу для лечения.По состоянию на 17:00 во вторник, в городе завершился второй раунд общегородского тестирования на нуклеиновые кислоты COVID-19. За исключением одного подтвержденного случая, все остальные результаты были отрицательными. Третий раунд тестирования здесь продолжается.В воскресенье Синьцзян сообщил о двух бессимптомных случаях, выявленных во время проведения регулярного тестирования в Хоргосе.</t>
   </si>
   <si>
+    <t>Пекин, 14 июля /Синьхуа/ -- В настоящее время устойчивая социальная стабильность наблюдается в Синьцзяне, где люди всех национальностей живут в мире и спокойствии, и Синьцзян находится в лучшем периоде развития в своей истории, говорится в Белой книге, опубликованной в среду Пресс-канцелярией Госсовета КНР.Синьцзян вместе с другими районами Китая достиг цели полного построения среднезажиточного общества и вступил на новый путь всестороннего построения модернизированного социалистического государства. Это позволит лучше обеспечить равноправие между всеми этническими группами, и все жители Синьцзяна будут наслаждаться более счастливой и процветающей жизнью, отмечается в Белой книге, озаглавленной "Уважение и защита прав всех этнических групп в Синьцзяне".</t>
+  </si>
+  <si>
+    <t>Жизнь проста, но полна надежд для Альфата Еркина, старшеклассника, который живет в уезде Эминь в Синьцзян-Уйгурском автономном районе /Северо-Западный Китай/.</t>
+  </si>
+  <si>
     <t>Шеф-повар в Синьцзяне нашел работу, которая привела его к встрече с любовью всей своей жизни и к счастливому семейному очагу.</t>
   </si>
   <si>
     <t>Пекин, 14 июля /Синьхуа/ -- Согласно Белой книге, опубликованной Пресс-канцелярией Госсовета КНР в среду, в Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/ обеспечивается разнообразие устных языков и письменности.Обеспечивая право изучать и использовать общенациональный устный и письменный китайский язык, все этнические группы в Синьцзяне имеют свободу использовать и развивать свои собственные устные и письменные языки, говорится в Белой книге под названием "Уважение и защита прав всех этнических групп в Синьцзяне".В настоящее время люди всех этнических групп в Синьцзяне используют более 10 устных и письменных языков, добавляется в документе.</t>
   </si>
   <si>
-    <t>Жизнь проста, но полна надежд для Альфата Еркина, старшеклассника, который живет в уезде Эминь в Синьцзян-Уйгурском автономном районе /Северо-Западный Китай/.</t>
-  </si>
-  <si>
-    <t>Пекин, 14 июля /Синьхуа/ -- В настоящее время устойчивая социальная стабильность наблюдается в Синьцзяне, где люди всех национальностей живут в мире и спокойствии, и Синьцзян находится в лучшем периоде развития в своей истории, говорится в Белой книге, опубликованной в среду Пресс-канцелярией Госсовета КНР.Синьцзян вместе с другими районами Китая достиг цели полного построения среднезажиточного общества и вступил на новый путь всестороннего построения модернизированного социалистического государства. Это позволит лучше обеспечить равноправие между всеми этническими группами, и все жители Синьцзяна будут наслаждаться более счастливой и процветающей жизнью, отмечается в Белой книге, озаглавленной "Уважение и защита прав всех этнических групп в Синьцзяне".</t>
+    <t>С ноября 2010 года Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ построил четыре линии электропередач, предназначенные для поставки электричества в другие районы страны. Посмотрев это видео, вы узнаете, как технические работники ликвидируют скрытую опасность на металлической опоре под номером 929 линии сверхвысокого напряжения постоянного тока, которая связывает Чанцзи-Хуэйский автономный округ СУАР с поселком Гуцюань города Сюаньчэн провинции Аньхой на востоке Китая.</t>
+  </si>
+  <si>
+    <t>19 июля 2019 года, в городе Турфан Синьцзян-Уйгурского автономного района горожанки делают селфи на ночном базаре. /Фото: Синьхуа/Пекин, 14 июля /Синьхуа/ -- В Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/ были приняты решительные меры по борьбе с экстремизмом в целях предотвращения ущемления гражданских свобод, говорится в опубликованном в среду официальном документе.В СУАР также проводятся пропагандистско-разъяснительные кампании по вопросам верховенства закона с целью защиты гражданского права на личную свободу, отмечается в Белой книге под названием "Уважение и защита прав всех этнических групп в Синьцзяне", выпущенной Пресс-канцелярией Госсовета КНР.В ней говорится, что граждане, независимо от их национальности и вероисповедания, имеют свободу передвижения, выбора работы и образа жизни в рамках закона, не подвергаясь вмешательству извне или ограничениям со стороны других лиц.</t>
+  </si>
+  <si>
+    <t>10 апреля 2021 года, жители поселка Ават города Корла Синьцзян-Уйгурского автономного района на северо-западе Китая встречают туристов танцами. /Фото: Синьхуа/Пекин, 14 июля /Синьхуа/ -- В настоящее время устойчивая социальная стабильность наблюдается в Синьцзяне, где люди всех национальностей живут в мире и спокойствии, и Синьцзян находится в лучшем периоде развития в своей истории, говорится в Белой книге, опубликованной в среду Пресс-канцелярией Госсовета КНР.Синьцзян вместе с другими районами Китая достиг цели полного построения среднезажиточного общества и вступил на новый путь всестороннего построения модернизированного социалистического государства. Это позволит лучше обеспечить равноправие между всеми этническими группами, и все жители Синьцзяна будут наслаждаться более счастливой и процветающей жизнью, отмечается в Белой книге, озаглавленной "Уважение и защита прав всех этнических групп в Синьцзяне".</t>
+  </si>
+  <si>
+    <t>Пекин, 14 июля /Синьхуа/ -- В Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/ были приняты решительные меры по борьбе с экстремизмом в целях предотвращения ущемления гражданских свобод, говорится в опубликованном в среду официальном документе.В СУАР также проводятся пропагандистско-разъяснительные кампании по вопросам верховенства закона с целью защиты гражданского права на личную свободу, отмечается в Белой книге под названием "Уважение и защита прав всех этнических групп в Синьцзяне", выпущенной Пресс-канцелярией Госсовета КНР.В ней говорится, что граждане, независимо от их национальности и вероисповедания, имеют свободу передвижения, выбора работы и образа жизни в рамках закона, не подвергаясь вмешательству извне или ограничениям со стороны других лиц.</t>
   </si>
   <si>
     <t>Пекин, 8 июля /Синьхуа/ -- В ближайшем будущем представители соответствующих международных отраслевых организаций и иностранных предприятий в Китае посетят Синьцзян-Уйгурский автономный район, об этом заявил в четверг официальный представитель Министерства коммерции КНР Гао Фэн.Согласно сообщению, в Синьцзяне они посетят хлопковые поля и прядильные фабрики.Гао Фэн также выразил надежду, что все больше и больше предприятий и организаций будут уважать факты и правду и следовать законам рынка.Китай призывает отдельные страны немедленно перестать использовать практику запугивания, заключающуюся в необоснованном подавлении китайских компаний, и готов продолжать оказывать активную поддержку иностранным предприятиям в целях развития торговли и инвестиций с Синьцзяном, сказал Гао Фэн.</t>
   </si>
   <si>
-    <t>Пекин, 14 июля /Синьхуа/ -- В Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/ были приняты решительные меры по борьбе с экстремизмом в целях предотвращения ущемления гражданских свобод, говорится в опубликованном в среду официальном документе.В СУАР также проводятся пропагандистско-разъяснительные кампании по вопросам верховенства закона с целью защиты гражданского права на личную свободу, отмечается в Белой книге под названием "Уважение и защита прав всех этнических групп в Синьцзяне", выпущенной Пресс-канцелярией Госсовета КНР.В ней говорится, что граждане, независимо от их национальности и вероисповедания, имеют свободу передвижения, выбора работы и образа жизни в рамках закона, не подвергаясь вмешательству извне или ограничениям со стороны других лиц.</t>
-  </si>
-  <si>
-    <t>С ноября 2010 года Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ построил четыре линии электропередач, предназначенные для поставки электричества в другие районы страны. Посмотрев это видео, вы узнаете, как технические работники ликвидируют скрытую опасность на металлической опоре под номером 929 линии сверхвысокого напряжения постоянного тока, которая связывает Чанцзи-Хуэйский автономный округ СУАР с поселком Гуцюань города Сюаньчэн провинции Аньхой на востоке Китая.</t>
-  </si>
-  <si>
-    <t>19 июля 2019 года, в городе Турфан Синьцзян-Уйгурского автономного района горожанки делают селфи на ночном базаре. /Фото: Синьхуа/Пекин, 14 июля /Синьхуа/ -- В Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/ были приняты решительные меры по борьбе с экстремизмом в целях предотвращения ущемления гражданских свобод, говорится в опубликованном в среду официальном документе.В СУАР также проводятся пропагандистско-разъяснительные кампании по вопросам верховенства закона с целью защиты гражданского права на личную свободу, отмечается в Белой книге под названием "Уважение и защита прав всех этнических групп в Синьцзяне", выпущенной Пресс-канцелярией Госсовета КНР.В ней говорится, что граждане, независимо от их национальности и вероисповедания, имеют свободу передвижения, выбора работы и образа жизни в рамках закона, не подвергаясь вмешательству извне или ограничениям со стороны других лиц.</t>
-  </si>
-  <si>
     <t>Урумчи, 6 июня /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ достиг рекордно высокого уровня эффективности использования энергии из альтернативных источников, свидетельствуют данные районного комитета по делам развития и реформ.Согласно данным, за первые четыре месяца этого года коэффициент использования ветроэнергетических и солнечных мощностей составил 93,2 проц. и 98,8 проц., увеличившись на 4,5 п.п. и 4 п.п. в годовом исчислении соответственно. За этот период выработка ветровой и солнечной электроэнергии значительно выросла до 22,43 млрд кВт-часов.В 2016 году коэффициент использования мощностей альтернативных источников энергии в районе достиг рекордно низкого уровня в 63 проц., после чего устойчиво рос в течение пяти лет подряд и достиг 91 проц. в 2020 году.К концу апреля текущего года установленная мощность ветровой и солнечной энергии Синьцзяна достигла 23,55 млн кВт и 12,06 млн кВт соответственно, составив 34,3 проц. от общей установленной генерирующей мощности СУАР, свидетельствуют последние данные.Согласно данным Китайской национальной корпорации электросети State Grid, в 2020 году Синьцзян передал 27 млрд кВт-часов электроэнергии, полученной в результате использования энергии альтернативных источников, в 20 других китайских провинций, АР и городов центрального подчинения, что позволило сократить выбросы углекислого газа на 23,32 млн тонн.</t>
   </si>
   <si>
-    <t>10 апреля 2021 года, жители поселка Ават города Корла Синьцзян-Уйгурского автономного района на северо-западе Китая встречают туристов танцами. /Фото: Синьхуа/Пекин, 14 июля /Синьхуа/ -- В настоящее время устойчивая социальная стабильность наблюдается в Синьцзяне, где люди всех национальностей живут в мире и спокойствии, и Синьцзян находится в лучшем периоде развития в своей истории, говорится в Белой книге, опубликованной в среду Пресс-канцелярией Госсовета КНР.Синьцзян вместе с другими районами Китая достиг цели полного построения среднезажиточного общества и вступил на новый путь всестороннего построения модернизированного социалистического государства. Это позволит лучше обеспечить равноправие между всеми этническими группами, и все жители Синьцзяна будут наслаждаться более счастливой и процветающей жизнью, отмечается в Белой книге, озаглавленной "Уважение и защита прав всех этнических групп в Синьцзяне".</t>
-  </si>
-  <si>
     <t>Урумчи, 30 апреля /Синьхуа/ -- С 28 по 29 апреля в городе Тумшук Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ прошел симпозиум на тему "Руины Танванчэн: история и культура колонизации целинных земель китайскими военными поселенцами". На месте раскопок Танванчэна, древнего города военных покорителей целины с 2200-летней историей, обнаружено уже свыше 4000 реликвий, имеющих исключительную археологическую ценность.Фотографии Синьхуа</t>
   </si>
   <si>
     <t>С начала 2021 года на КПП Карасу в округе Кашгар Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ большие усилия прилагаются к усиленному строительству инфраструктуры и повышению эффективности работы таможенников, что привело к значительному снижению затрат предприятий на таможенное оформление и позволяет значительно увеличивать объем торговли Китая с Таджикистаном.</t>
   </si>
   <si>
+    <t>Аэрофотосъемка, сделанная 11 апреля 2021 года, показывает место проведения аварийно-спасательных работ на затопленной угольной шахте в уезде Хутуби Чанцзи-Хуэйского автономного округа СУАР на северо-западе Китая. /Фото: Синьхуа/Пекин, 11 апреля /Синьхуа/ -- Министерство по управлению чрезвычайными ситуациями КНР направило рабочую группу для оказания помощи в проведении аварийно-спасательных работ после произошедшего в субботу затопления одной из угольных шахт в Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/.Инцидент произошел в субботу около 18:10, когда 29 рабочих проводили техническую реконструкцию угольной шахты, расположенной в уезде Хутуби Чанцзи-Хуэйского автономного округа СУАР. В результате происшествия 21 человек оказался заблокированным под землей.По сообщению министерства, на место происшествия был направлен его официальный представитель, который возглавит рабочую группу и группу экспертов, занятых в аварийно-спасательных работах.Для оказания помощи в проведении аварийно-спасательных работ также были направлены государственные спасательные команды и местные пожарные бригады, добавили в министерстве.</t>
+  </si>
+  <si>
+    <t>Пекин, 11 апреля /Синьхуа/ -- Министерство по управлению чрезвычайными ситуациями КНР направило рабочую группу для оказания помощи в проведении аварийно-спасательных работ после произошедшего в субботу затопления одной из угольных шахт в Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/.Инцидент произошел в субботу около 18:10, когда 29 рабочих проводили техническую реконструкцию угольной шахты, расположенной в уезде Хутуби Чанцзи-Хуэйского автономного округа СУАР. В результате происшествия 21 человек оказался заблокированным под землей.По сообщению министерства, на место происшествия был направлен его официальный представитель, который возглавит рабочую группу и группу экспертов, занятых в аварийно-спасательных работах.Для оказания помощи в проведении аварийно-спасательных работ также были направлены государственные спасательные команды и местные пожарные бригады, добавили в министерстве.</t>
+  </si>
+  <si>
     <t>Кашгар /Синьцзян-Уйгурский АР/, 5 апреля /Синьхуа/ -- С начала этого года на контрольно-пропускном пункте Карасу в округе Кашгар Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ действуют новые требования в части организации профилактики и контроля эпидемии и повышения эффективности работы таможенников. Благодаря усиленному строительству инфраструктуры пропускная способность КПП постоянно растет, при этом таможенные расходы предприятий снижаются, что создает мощный потенциал для роста торговли с Таджикистаном.Фотографии Синьхуа/Чжао Гэ</t>
   </si>
   <si>
-    <t>Пекин, 11 апреля /Синьхуа/ -- Министерство по управлению чрезвычайными ситуациями КНР направило рабочую группу для оказания помощи в проведении аварийно-спасательных работ после произошедшего в субботу затопления одной из угольных шахт в Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/.Инцидент произошел в субботу около 18:10, когда 29 рабочих проводили техническую реконструкцию угольной шахты, расположенной в уезде Хутуби Чанцзи-Хуэйского автономного округа СУАР. В результате происшествия 21 человек оказался заблокированным под землей.По сообщению министерства, на место происшествия был направлен его официальный представитель, который возглавит рабочую группу и группу экспертов, занятых в аварийно-спасательных работах.Для оказания помощи в проведении аварийно-спасательных работ также были направлены государственные спасательные команды и местные пожарные бригады, добавили в министерстве.</t>
-  </si>
-  <si>
-    <t>Аэрофотосъемка, сделанная 11 апреля 2021 года, показывает место проведения аварийно-спасательных работ на затопленной угольной шахте в уезде Хутуби Чанцзи-Хуэйского автономного округа СУАР на северо-западе Китая. /Фото: Синьхуа/Пекин, 11 апреля /Синьхуа/ -- Министерство по управлению чрезвычайными ситуациями КНР направило рабочую группу для оказания помощи в проведении аварийно-спасательных работ после произошедшего в субботу затопления одной из угольных шахт в Синьцзян-Уйгурском автономном районе /СУАР, Северо-Западный Китай/.Инцидент произошел в субботу около 18:10, когда 29 рабочих проводили техническую реконструкцию угольной шахты, расположенной в уезде Хутуби Чанцзи-Хуэйского автономного округа СУАР. В результате происшествия 21 человек оказался заблокированным под землей.По сообщению министерства, на место происшествия был направлен его официальный представитель, который возглавит рабочую группу и группу экспертов, занятых в аварийно-спасательных работах.Для оказания помощи в проведении аварийно-спасательных работ также были направлены государственные спасательные команды и местные пожарные бригады, добавили в министерстве.</t>
-  </si>
-  <si>
     <t>В последние дни в уезде Шая округа Аксу Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ начался весенний сев хлопчатника на площади около 2 млн му /1 га - 15 му/. В 2020 году посевная площадь под хлопчатником в этом уезде, являющемся одним из главных районов-производителей хлопка в Синьцзяне, составила более 1,98 млн му, при этом урожай на площади 1,5 млн му был собран хлопкоуборочными машинами.</t>
   </si>
   <si>
     <t>Кашгар /Синьцзян-Уйгурский АР/, 5 апреля /Синьхуа/ -- С начала этого года на контрольно-пропускном пункте Карасу в округе Кашгар Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ действуют новые требования в части организации профилактики и контроля эпидемии и повышения эффективности работы таможенников. Благодаря усиленному строительству инфраструктуры пропускная способность КПП постоянно растет, при этом таможенные расходы предприятий снижаются, что создает мощный потенциал для роста торговли с Таджикистаном.Фотографии Синьхуа/Чжао ГэКашгар /Синьцзян-Уйгурский АР/, 5 апреля /Синьхуа/ -- С начала этого года на контрольно-пропускном пункте Карасу в округе Кашгар Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ действуют новые требования в части организации профилактики и контроля эпидемии и повышения эффективности работы таможенников. Благодаря усиленному строительству инфраструктуры пропускная способность КПП постоянно растет, при этом таможенные расходы предприятий снижаются, что создает мощный потенциал для роста торговли с Таджикистаном.Фотографии Синьхуа/Чжао Гэ</t>
   </si>
   <si>
+    <t>Урумчи, 2 апреля /Синьхуа/ -- Семинар “Синьцзян -- замечательный край”, совместно организованный МИД КНР и властями Синьцзян-Уйгурского автономного района /Северо-Западный Китай/, состоялся сегодня в Урумчи. В мероприятии приняли участие находящиеся здесь с ознакомительным визитом генеральный секретарь Шанхайской организации сотрудничества /ШОС/ Владимир Норов и дипломатические представители различных государств в Китае, в общей сложности более 30 человек. Участники семинара отметили, что произошедшие за последние годы глубокие изменения в Синьцзяне очевидны для всех, фундаментальные права представителей всех народностей эффективно защищаются, в связи с чем другие государства не должны делать безответственные высказывания и тем более вмешиваться во внутренние дела Китая. Фотографии Синьхуа/Дин Лэй</t>
+  </si>
+  <si>
     <t>Урумчи, 25 марта /Синьхуа/ -- В 2021 году Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ планирует вложить более 240 млрд юаней /36,8 млрд долл. США/ в 350 ключевых проектов в районе, сообщили местные власти в среду.Число проектов с общим объемом инвестиций более 1,5 млрд юаней в каждый достигло 205, что составляет 58,6 проц. от общего числа ключевых проектов в районе, сообщил Чжан Юнлян, замначальника одного из отделов Комитета по делам развития и реформ СУАР.Ожидается, что инвестиции в ключевые проекты в сфере культуры и туризма вырастут более чем в 2,3 раза по сравнению с прошлым годом, поскольку Синьцзян намерен привлечь более 200 млн туристов в 2021 году и более 400 млн туристов в 2025 году.Чжан Юнлян также отметил значительное увеличение доли проектов в сфере инфраструктуры нового типа по сравнению с предыдущими годами, а также бурный рост числа проектов в нарождающихся отраслях.По официальным данным, в 2020 году инвестиции в основные фонды в Синьцзяне выросли на 16,2 проц. в годовом исчислении, что на 13,6 п. п. больше, чем в среднем по стране.</t>
   </si>
   <si>
-    <t>Урумчи, 2 апреля /Синьхуа/ -- Семинар “Синьцзян -- замечательный край”, совместно организованный МИД КНР и властями Синьцзян-Уйгурского автономного района /Северо-Западный Китай/, состоялся сегодня в Урумчи. В мероприятии приняли участие находящиеся здесь с ознакомительным визитом генеральный секретарь Шанхайской организации сотрудничества /ШОС/ Владимир Норов и дипломатические представители различных государств в Китае, в общей сложности более 30 человек. Участники семинара отметили, что произошедшие за последние годы глубокие изменения в Синьцзяне очевидны для всех, фундаментальные права представителей всех народностей эффективно защищаются, в связи с чем другие государства не должны делать безответственные высказывания и тем более вмешиваться во внутренние дела Китая. Фотографии Синьхуа/Дин Лэй</t>
+    <t>Ханчжоу, 23 марта /Синьхуа/ -- В этом году отмечено резкое увеличение объема железнодорожных перевозок из города Иу, центра оптовой торговли мелкими товарами в провинции Чжэцзян /Восточный Китай/, в Европу. Об этом сегодня сообщили источники в железнодорожной отрасли.Товарный поезд, груженный 100 TEU /20-футовый контейнерный эквивалент/, покинул сегодня днем Иу по направлению к столице Беларуси Минску. За период с 1-го января данный состав стал 300-м, отправленным из этого города Чжэцзяна и следующим по маршруту Китай-Европа.Вышеупомянутые 300 поездов перевезли в общей сложности 25 058 TEU различных товаров, что больше прошлогоднего показателя на 373,9 проц.Грузовое железнодорожное сообщение, связывающее Иу с Европой через Синьцзян-Уйгурский автономный район на северо-западе Китая, было открыто в 2014 году. С тех пор Иу отправил более 2,9 тыс грузовых поездов Китай-Европа, доставив более 240 тыс TEU товаров.</t>
+  </si>
+  <si>
+    <t>Пекин, 22 февраля /Синьхуа/ -- Все большее и большее число дальновидных людей в международном сообществе осознает ситуацию в Синьцзяне и политику китайского правительства и выступает в защиту этого, заявил сегодня официальный представитель МИД КНР Ван Вэньбинь."Мы надеемся, что большее число иностранных СМИ будет освещать Синьцзян объективно и беспристрастно", -- заявил он, отвечая на вопрос о статье, опубликованной 18 февраля на независимом новостном сайте Grayzone, в которой указывалось, что обвинения правительства США в отношении Китая в "геноциде" проистекают из доклада немецкого ультраправого исследователя Адриана Зенца и являются слухами.Как отметил Ван Вэньбинь, статья, используя большое количество цифр и фактов, указывает на то, что исследование Зенца изобилует злоупотреблением данными, искажением информации, фальсификацией случаев, выборочным представлением источников и логическими противоречиями.Данная статья разоблачила истинное лицо Зенца и доказала, что обвинения в "геноциде" -- абсолютная ложь, добавил он.В течение некоторого времени Зенц и некоторые международные антикитайские силы выдумывали связанные с Синьцзяном слухи и ложь для своих собственных скрытых политических целей, пытаясь использовать фальшивые новости, чтобы привлечь внимание и очернить Китай."Как бы ни были переработаны их лживые уловки, они слабы перед фактами", -- заявил Ван Вэньбинь.Он выразил надежду, что международное сообщество ясно увидит истинное лицо этих антикитайских сил и не будет сбито с толку их слухами и ложью."Мы надеемся, что некоторые страны и отдельные лица прямо признают факт стабильности и развития Синьцзяна и прислушаются к призыву 25 миллионов представителей всех этнических групп в Синьцзяне. В то же время им следует читать более объективные доклады международного сообщества о Синьцзяне, а не закрывать глаза и уши на реальность и попадаться на крючок своей собственной лжи", -- заявил Ван Вэньбинь.</t>
   </si>
   <si>
     <t>Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ полностью избавился от абсолютной нищеты. За последние пять лет около 3,06 млн сельских жителей этого района избавились от бедности, сообщил секретарь комитета КПК СУАР Чэнь Цюаньго.
 Он сделал такое заявление на днях на тематическом брифинге, посвященном Синьцзяну.</t>
   </si>
   <si>
-    <t>Ханчжоу, 23 марта /Синьхуа/ -- В этом году отмечено резкое увеличение объема железнодорожных перевозок из города Иу, центра оптовой торговли мелкими товарами в провинции Чжэцзян /Восточный Китай/, в Европу. Об этом сегодня сообщили источники в железнодорожной отрасли.Товарный поезд, груженный 100 TEU /20-футовый контейнерный эквивалент/, покинул сегодня днем Иу по направлению к столице Беларуси Минску. За период с 1-го января данный состав стал 300-м, отправленным из этого города Чжэцзяна и следующим по маршруту Китай-Европа.Вышеупомянутые 300 поездов перевезли в общей сложности 25 058 TEU различных товаров, что больше прошлогоднего показателя на 373,9 проц.Грузовое железнодорожное сообщение, связывающее Иу с Европой через Синьцзян-Уйгурский автономный район на северо-западе Китая, было открыто в 2014 году. С тех пор Иу отправил более 2,9 тыс грузовых поездов Китай-Европа, доставив более 240 тыс TEU товаров.</t>
-  </si>
-  <si>
     <t>Пномпень, 9 февраля /Синьхуа/ -- В Синьцзян-Уйгурском автономном районе Китая в течение последних нескольких лет сохраняется стабильность, и были продемонстрированы выдающиеся успехи в развитии в различных областях, заявил сегодня заместитель председателя пресс-службы правительства Камбоджи Эк Тха.В письменном интервью корр. Синьхуа Эк Тха отметил, что в Синьцзяне ведется непрерывное стимулирование экономического развития, значительно улучшается уровень жизни людей, и была достигнута решающая победа в борьбе с бедностью населения."Я вижу, что ко всем этническим группам в Синьцзяне относятся одинаково, они в полной мере пользуются своим правом на жизнь и развитие", -- заявил в интервью корр Синьхуа Эк Тха.Он выразил уверенность, что под руководством Коммунистической партии Китая и правительства Китая Синьцзян будет продолжать жить в мире и стабильности, достигнет дальнейшего всестороннего развития, а стремление представителей различных этнических групп к лучшей жизни будет исполнено.</t>
   </si>
   <si>
-    <t>Пекин, 22 февраля /Синьхуа/ -- Все большее и большее число дальновидных людей в международном сообществе осознает ситуацию в Синьцзяне и политику китайского правительства и выступает в защиту этого, заявил сегодня официальный представитель МИД КНР Ван Вэньбинь."Мы надеемся, что большее число иностранных СМИ будет освещать Синьцзян объективно и беспристрастно", -- заявил он, отвечая на вопрос о статье, опубликованной 18 февраля на независимом новостном сайте Grayzone, в которой указывалось, что обвинения правительства США в отношении Китая в "геноциде" проистекают из доклада немецкого ультраправого исследователя Адриана Зенца и являются слухами.Как отметил Ван Вэньбинь, статья, используя большое количество цифр и фактов, указывает на то, что исследование Зенца изобилует злоупотреблением данными, искажением информации, фальсификацией случаев, выборочным представлением источников и логическими противоречиями.Данная статья разоблачила истинное лицо Зенца и доказала, что обвинения в "геноциде" -- абсолютная ложь, добавил он.В течение некоторого времени Зенц и некоторые международные антикитайские силы выдумывали связанные с Синьцзяном слухи и ложь для своих собственных скрытых политических целей, пытаясь использовать фальшивые новости, чтобы привлечь внимание и очернить Китай."Как бы ни были переработаны их лживые уловки, они слабы перед фактами", -- заявил Ван Вэньбинь.Он выразил надежду, что международное сообщество ясно увидит истинное лицо этих антикитайских сил и не будет сбито с толку их слухами и ложью."Мы надеемся, что некоторые страны и отдельные лица прямо признают факт стабильности и развития Синьцзяна и прислушаются к призыву 25 миллионов представителей всех этнических групп в Синьцзяне. В то же время им следует читать более объективные доклады международного сообщества о Синьцзяне, а не закрывать глаза и уши на реальность и попадаться на крючок своей собственной лжи", -- заявил Ван Вэньбинь.</t>
+    <t>Пекин, 5 февраля /Синьхуа/ -- С конца 2018 года свыше 1200 человек из более чем 100 стран и районов, включая представителей международных организаций, дипломатов, журналистов и религиозных лидеров, посетили Синьцзян-Уйгурский автономный район /Северо-Западный Китай/. Об этом свидетельствует официальная статистика.Согласно Положению КНР об информационном освещении событий постоянными представительствами иностранных средств массовой информации и иностранными журналистами, работникам СМИ из других стран разрешено делать репортажи из Синьцзяна при условии соблюдения законов Китая и соответствующих процедур.3-7 сентября 2019 года в Синьцзян-Уйгурском АР работали репортеры NBC, а в декабре 2020 года городской уезд Куча и другие районы Синьцзяна посетили журналисты BBC.</t>
+  </si>
+  <si>
+    <t>31 декабря 2020 года, лошади бегут в поле в уезде Чжаосу Или-Казахского автономного округа СУАР /Северо-Западный Китай/. /Фото: Синьхуа/Урумчи, 1 февраля /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ будет в дальнейшем способствовать развитию туризма, заявил председатель районного правительства Шохрат Закир.Синьцзян планирует привлечь более 200 млн туристов в 2021 году, а также нацелен принять более 400 млн отечественных и иностранных гостей к 2025 году, отметил Шохрат Закир, выступая с докладом о работе правительства в понедельник на ежегодной сессии Собрания народных представителей района.В прошлом году более 158 млн туристов посетили Синьцзян, несмотря на воздействие эпидемии COVID-19.</t>
+  </si>
+  <si>
+    <t>Урумчи, 1 февраля /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ будет в дальнейшем способствовать развитию туризма, заявил председатель районного правительства Шохрат Закир.Синьцзян планирует привлечь более 200 млн туристов в 2021 году, а также нацелен принять более 400 млн отечественных и иностранных гостей к 2025 году, отметил Шохрат Закир, выступая с докладом о работе правительства в понедельник на ежегодной сессии Собрания народных представителей района.В прошлом году более 158 млн туристов посетили Синьцзян, несмотря на воздействие эпидемии COVID-19.</t>
+  </si>
+  <si>
+    <t>Урумчи, 3 января /Синьхуа/ -- Рекордное количество грузовых поездов Китай-Европа, равное 9679 составам, проследовало в 2020 году в обоих направлениях через Синьцзян-Уйгурский автономный район /Северо-Западный Китай/. Об этом сообщили в Урумчийском управлении Китайской государственной железнодорожной корпорации.Через контрольно-пропускной пункт Алашанькоу проследовало 5027 поездов, через КПП Хоргос -- 4652 поезда, что, соответственно, на 41,8 проц и 37 проц выше показателей 2019 года.В управлении отметили, что значительные объемы грузов, которые ранее доставлялись в Европу воздушным и морским транспортом, в прошлом году были перевезены поездами Китай-Европа.В 2020 году местные железнодорожные ведомства увеличили пропускную способность и повысили производительность КПП Алашанькоу и КПП Хоргос. Благодаря более эффективному взаимодействию синьцзянских железнодорожников с таможней, службой пограничного контроля, а также коллегами из Казахстана время, необходимое для прохождения состава через границу, сократилось с 10 часов до менее чем одного часа.В настоящее время через КПП Алашанькоу проходят 22 грузовых маршрута из Китая в 13 стран, среди которых Германия, Польша и Россия, а через КПП Хоргос -- 16 маршрутов в более чем 10 стран, включая Узбекистан.</t>
   </si>
   <si>
     <t>27 мая 2020 года, дети играют в древнем уезде Туаньчэн города Хотан Синьцзян-Уйгурского автономного района на северо-западе Китая. /Фото: Синьхуа/Пекин, 1 февраля /Синьхуа/ -- Высокопоставленный чиновник Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/ в понедельник осудил обвинения бывшего госсекретаря США Майка Помпео в "геноциде" и "преступлении против человечности" как крупнейшее ложное обвинение в истории человечества и пригласил иностранцев посетить СУАР, чтобы самим узнать реальную ситуацию."Злобные высказывания М. Помпео серьезным образом попрали международное право и основные нормы международных отношений, вмешались во внутренние дела Китая и оскорбили чувства народа всех этнических групп в Синьцзяне. Его 'утверждение' - лишь макулатура", - заявил замглавы отдела пропаганды парткома СУАР Сюй Гуйсян на пресс-брифинге в Пекине."Мы приглашаем иностранных граждан из различных кругов  общественности, включая соответствующих должностных лиц новой администрации США, посетить Синьцзян и лично убедиться в реальной ситуации там, чтобы избежать заблуждений из-за лжи М. Помпео", - сказал он."Однако у нас также есть принцип и предел, и мы не будем соглашаться с так называемым 'расследованием', основанным на презумпции вины", - добавил Сюй Гуйсян.</t>
   </si>
   <si>
-    <t>Урумчи, 1 февраля /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ будет в дальнейшем способствовать развитию туризма, заявил председатель районного правительства Шохрат Закир.Синьцзян планирует привлечь более 200 млн туристов в 2021 году, а также нацелен принять более 400 млн отечественных и иностранных гостей к 2025 году, отметил Шохрат Закир, выступая с докладом о работе правительства в понедельник на ежегодной сессии Собрания народных представителей района.В прошлом году более 158 млн туристов посетили Синьцзян, несмотря на воздействие эпидемии COVID-19.</t>
+    <t>Йоханнесбург, 5 февраля /Синьхуа/ -- Заместитель генерального директора департамента международных отношений и сотрудничества МИД ЮАР по Азии и Среднему Востоку Анил Суклал на днях в интервью корр. Синьхуа заявил, что поддерживает политику Китая по управлению Синьцзян-Уйгурским автономным районом и выступает против необоснованных обвинений некоторых стран, касающихся внутренних дел КНР.Он обратил внимание на то, что китайское правительство энергично продвигает строительство инфраструктуры в Синьцзяне, стимулирует модернизацию экономики, активно создает рабочие места и повышает уровень жизни местного населения. "Дипломаты, журналисты и организации многих стран, включая ЮАР, а также мои коллеги посетили Синьцзян и стали свидетелями его бурного развития и того, как люди избавляются от нищеты", -- отметил дипломат.А. Суклал напомнил, что экс-госсекретарь США Майкл Помпео недавно сделал ошибочное заявление и сфабриковал ложь по синьцзянскому вопросу, чтобы подорвать и воспрепятствовать процессу развития Китая и получить личные политические выгоды. ЮАР неизменно выступает против вмешательства внешних сил во внутренние дела государств и подрыва их суверенитета, подчеркнул дипломат."Великие достижения Китая в области развития принесут пользу всему миру. Любая политическая попытка сдержать или навредить Китаю окажет негативное влияние на международное сообщество", -- заявил А. Суклал, добавив, что подстрекательство М. Помпео к конфронтации не способствует построению мирного, стабильного и безопасного мира.</t>
+  </si>
+  <si>
+    <t>В 2020 году через Синьцзян-Уйгурский АР проследовало рекордное количество грузовых поездов Китай-Европа -- 9679. /Фото: Синьхуа/Урумчи, 3 января /Синьхуа/ -- Рекордное количество грузовых поездов Китай-Европа, равное 9679 составам, проследовало в 2020 году в обоих направлениях через Синьцзян-Уйгурский автономный район /Северо-Западный Китай/. Об этом сообщили в Урумчийском управлении Китайской государственной железнодорожной корпорации.Через контрольно-пропускной пункт Алашанькоу проследовало 5027 поездов, через КПП Хоргос -- 4652 поезда, что, соответственно, на 41,8 проц и 37 проц выше показателей 2019 года.В управлении отметили, что значительные объемы грузов, которые ранее доставлялись в Европу воздушным и морским транспортом, в прошлом году были перевезены поездами Китай-Европа.В 2020 году местные железнодорожные ведомства увеличили пропускную способность и повысили производительность КПП Алашанькоу и КПП Хоргос. Благодаря более эффективному взаимодействию синьцзянских железнодорожников с таможней, службой пограничного контроля, а также коллегами из Казахстана время, необходимое для прохождения состава через границу, сократилось с 10 часов до менее чем одного часа.В настоящее время через КПП Алашанькоу проходят 22 грузовых маршрута из Китая в 13 стран, среди которых Германия, Польша и Россия, а через КПП Хоргос -- 16 маршрутов в более чем 10 стран, включая Узбекистан. --0--</t>
   </si>
   <si>
     <t>Пекин, 1 февраля /Синьхуа/ -- Высокопоставленный чиновник Синьцзян-Уйгурского автономного района /СУАР, Северо-Западный Китай/ в понедельник осудил обвинения бывшего госсекретаря США Майка Помпео в "геноциде" и "преступлении против человечности" как крупнейшее ложное обвинение в истории человечества и пригласил иностранцев посетить СУАР, чтобы самим узнать реальную ситуацию."Злобные высказывания М. Помпео серьезным образом попрали международное право и основные нормы международных отношений, вмешались во внутренние дела Китая и оскорбили чувства народа всех этнических групп в Синьцзяне. Его 'утверждение' - лишь макулатура", - заявил замглавы отдела пропаганды парткома СУАР Сюй Гуйсян на пресс-брифинге в Пекине."Мы приглашаем иностранных граждан из различных кругов общественности, включая соответствующих должностных лиц новой администрации США, посетить Синьцзян и лично убедиться в реальной ситуации там, чтобы избежать заблуждений из-за лжи М. Помпео", - сказал он."Однако у нас также есть принцип и предел, и мы не будем соглашаться с так называемым 'расследованием', основанным на презумпции вины", - добавил Сюй Гуйсян.</t>
   </si>
   <si>
-    <t>Йоханнесбург, 5 февраля /Синьхуа/ -- Заместитель генерального директора департамента международных отношений и сотрудничества МИД ЮАР по Азии и Среднему Востоку Анил Суклал на днях в интервью корр. Синьхуа заявил, что поддерживает политику Китая по управлению Синьцзян-Уйгурским автономным районом и выступает против необоснованных обвинений некоторых стран, касающихся внутренних дел КНР.Он обратил внимание на то, что китайское правительство энергично продвигает строительство инфраструктуры в Синьцзяне, стимулирует модернизацию экономики, активно создает рабочие места и повышает уровень жизни местного населения. "Дипломаты, журналисты и организации многих стран, включая ЮАР, а также мои коллеги посетили Синьцзян и стали свидетелями его бурного развития и того, как люди избавляются от нищеты", -- отметил дипломат.А. Суклал напомнил, что экс-госсекретарь США Майкл Помпео недавно сделал ошибочное заявление и сфабриковал ложь по синьцзянскому вопросу, чтобы подорвать и воспрепятствовать процессу развития Китая и получить личные политические выгоды. ЮАР неизменно выступает против вмешательства внешних сил во внутренние дела государств и подрыва их суверенитета, подчеркнул дипломат."Великие достижения Китая в области развития принесут пользу всему миру. Любая политическая попытка сдержать или навредить Китаю окажет негативное влияние на международное сообщество", -- заявил А. Суклал, добавив, что подстрекательство М. Помпео к конфронтации не способствует построению мирного, стабильного и безопасного мира.</t>
-  </si>
-  <si>
-    <t>Пекин, 5 февраля /Синьхуа/ -- С конца 2018 года свыше 1200 человек из более чем 100 стран и районов, включая представителей международных организаций, дипломатов, журналистов и религиозных лидеров, посетили Синьцзян-Уйгурский автономный район /Северо-Западный Китай/. Об этом свидетельствует официальная статистика.Согласно Положению КНР об информационном освещении событий постоянными представительствами иностранных средств массовой информации и иностранными журналистами, работникам СМИ из других стран разрешено делать репортажи из Синьцзяна при условии соблюдения законов Китая и соответствующих процедур.3-7 сентября 2019 года в Синьцзян-Уйгурском АР работали репортеры NBC, а в декабре 2020 года городской уезд Куча и другие районы Синьцзяна посетили журналисты BBC.</t>
-  </si>
-  <si>
-    <t>31 декабря 2020 года, лошади бегут в поле в уезде Чжаосу Или-Казахского автономного округа СУАР /Северо-Западный Китай/. /Фото: Синьхуа/Урумчи, 1 февраля /Синьхуа/ -- Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ будет в дальнейшем способствовать развитию туризма, заявил председатель районного правительства Шохрат Закир.Синьцзян планирует привлечь более 200 млн туристов в 2021 году, а также нацелен принять более 400 млн отечественных и иностранных гостей к 2025 году, отметил Шохрат Закир, выступая с докладом о работе правительства в понедельник на ежегодной сессии Собрания народных представителей района.В прошлом году более 158 млн туристов посетили Синьцзян, несмотря на воздействие эпидемии COVID-19.</t>
-  </si>
-  <si>
-    <t>В 2020 году через Синьцзян-Уйгурский АР проследовало рекордное количество грузовых поездов Китай-Европа -- 9679. /Фото: Синьхуа/Урумчи, 3 января /Синьхуа/ -- Рекордное количество грузовых поездов Китай-Европа, равное 9679 составам, проследовало в 2020 году в обоих направлениях через Синьцзян-Уйгурский автономный район /Северо-Западный Китай/. Об этом сообщили в Урумчийском управлении Китайской государственной железнодорожной корпорации.Через контрольно-пропускной пункт Алашанькоу проследовало 5027 поездов, через КПП Хоргос -- 4652 поезда, что, соответственно, на 41,8 проц и 37 проц выше показателей 2019 года.В управлении отметили, что значительные объемы грузов, которые ранее доставлялись в Европу воздушным и морским транспортом, в прошлом году были перевезены поездами Китай-Европа.В 2020 году местные железнодорожные ведомства увеличили пропускную способность и повысили производительность КПП Алашанькоу и КПП Хоргос. Благодаря более эффективному взаимодействию синьцзянских железнодорожников с таможней, службой пограничного контроля, а также коллегами из Казахстана время, необходимое для прохождения состава через границу, сократилось с 10 часов до менее чем одного часа.В настоящее время через КПП Алашанькоу проходят 22 грузовых маршрута из Китая в 13 стран, среди которых Германия, Польша и Россия, а через КПП Хоргос -- 16 маршрутов в более чем 10 стран, включая Узбекистан. --0--</t>
-  </si>
-  <si>
-    <t>Урумчи, 3 января /Синьхуа/ -- Рекордное количество грузовых поездов Китай-Европа, равное 9679 составам, проследовало в 2020 году в обоих направлениях через Синьцзян-Уйгурский автономный район /Северо-Западный Китай/. Об этом сообщили в Урумчийском управлении Китайской государственной железнодорожной корпорации.Через контрольно-пропускной пункт Алашанькоу проследовало 5027 поездов, через КПП Хоргос -- 4652 поезда, что, соответственно, на 41,8 проц и 37 проц выше показателей 2019 года.В управлении отметили, что значительные объемы грузов, которые ранее доставлялись в Европу воздушным и морским транспортом, в прошлом году были перевезены поездами Китай-Европа.В 2020 году местные железнодорожные ведомства увеличили пропускную способность и повысили производительность КПП Алашанькоу и КПП Хоргос. Благодаря более эффективному взаимодействию синьцзянских железнодорожников с таможней, службой пограничного контроля, а также коллегами из Казахстана время, необходимое для прохождения состава через границу, сократилось с 10 часов до менее чем одного часа.В настоящее время через КПП Алашанькоу проходят 22 грузовых маршрута из Китая в 13 стран, среди которых Германия, Польша и Россия, а через КПП Хоргос -- 16 маршрутов в более чем 10 стран, включая Узбекистан.</t>
+    <t>Урумчи, 19 декабря /Синьхуа/ -- Крупное месторождение природного газа, предполагаемые запасы которого составляют более 100 млрд кубометров, было открыто в Синьцзян-Уйгурском АР на северо-западе Китая. Об этом сообщает местное подразделение нефтегазовой корпорации PetroChina.Предварительные изыскания показывают, что газовая залежь площадью 156 млн кв. м, расположенная в центре южной окраины Джунгарской равнины, содержит 109 млрд кубометров газа, сообщил в пятницу генеральный директор Синьцзянского филиала корпорации PetroChina Хо Цзинь.По его словам, ожидаемый объем добычи природного газа на месторождении составит 610 тыс. кубометров в сутки, сырой нефти -- 106,3 кубометра."Это открытие стало крупным прорывом в разведке газовых залежей на южных окраинах Джунгарской равнины, что позволит нашей компании и дальше гарантировать поставки газа и внесет свой вклад в стабильность и процветание региона", -- заявил Хо Цзинь.</t>
+  </si>
+  <si>
+    <t>Участок китайской автодороги государственной категории номер 219 соединяет уезд Ечэн синьцзянского округа Каши /Кашгар/ и уезд Лхадзе тибетского города Шигадзе. Его общая протяженность составляет 2 140 км, а средняя высота над уровнем моря - 4500 м. Эта дорога, проходящая через мощные хребты и обширную необжитую местность, считается самой сложной и высокогорной в мире.</t>
   </si>
   <si>
     <t>Урумчи, 19 декабря /Синьхуа/ -- Крупное месторождение природного газа, предполагаемые запасы которого составляют более 100 млрд кубометров, было открыто в Синьцзян-Уйгурском АР на северо-западе Китая. Об этом сообщает местное подразделение нефтегазовой корпорации PetroChina.19 декабря, несмотря на сильный мороз, рабочий трудится на площадке разведочной скважины 1. /Фото: Синьхуа/Предварительные изыскания показывают, что газовая залежь площадью 156 млн кв. м, расположенная в центре южной окраины Джунгарской равнины, содержит 109 млрд кубометров газа, сообщил в пятницу генеральный директор Синьцзянского филиала корпорации PetroChina Хо Цзинь.По его словам, ожидаемый объем добычи природного газа на месторождении составит 610 тыс. кубометров в сутки, сырой нефти -- 106,3 кубометра."Это открытие стало крупным прорывом в разведке газовых залежей на южных окраинах Джунгарской равнины, что позволит нашей компании и дальше гарантировать поставки газа и внесет свой вклад в стабильность и процветание региона", -- заявил Хо Цзинь. --0--</t>
@@ -1027,19 +1033,13 @@
 Все эти десять уездов находятся на юге СУАР, где расположена крупнейшая в Китае пустыня.</t>
   </si>
   <si>
+    <t>Пекин, 3 декабря /Синьхуа/ -- Отдельные американские политики сфабриковали так называемую проблему "принудительного труда", чтобы создать предлог для ограничения китайских предприятий и сдерживания развития Китая, заявила сегодня официальный представитель МИД КНР Хуа Чуньин.Она сделала это заявление, комментируя в ходе очередного пресс-брифинга министерства решение США о запрете импорта хлопка из Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ под предлогом использования "принудительного труда".Действия США нарушают правила международной торговли и принципы рыночной экономики, наносят ущерб глобальным цепочкам производства и поставок, вредят интересам компаний и потребителей во всех странах, в том числе в США, заявила Хуа Чуньин."Следует отметить, что помощь людям всех этнических групп в обретении стабильной работы и "принудительный труд" -- совершенно разные понятия", -- заявила Хуа Чуньин, добавив, что работники всех национальностей в Синьцзян-Уйгурском АР выбирают работу по собственной воле. Они добровольно подписывают договоры с компаниями в соответствии с принципом равенства и "не будут подвергаться дискриминации из-за различий в национальности, поле и религиозных воззрениях", -- отметила она."Отдельные политики в США заявляют, что они заботятся и защищают права этнических групп в Синьцзян-Уйгурском АР, но, с другой стороны, они же ограничивают предприятия из Синьцзяна, используя давление и санкции, подрывают стабильное развитие и процветание Синьцзяна", -- заявила Хуа Чуньин.Китай призывает этих политиков уважать истинное положение дел и прекратить использование проблем, связанных с Синьцзян-Уйгурским АР, для вмешательства во внутренние дела страны. Китай будет и дальше принимать все необходимые меры для защиты прав и интересов китайских предприятий, заключила Хуа Чуньин.</t>
+  </si>
+  <si>
     <t>Синьхуа фотоУрумчи, 14 ноября /Синьхуа/ -- Историческое достижение Синьцзян-Уйгурского АР -- регион полностью избавился от нищеты.Как сообщило сегодня правительство СУАР, последние десять бедных уездов Синьцзян-Уйгурского АР на северо-западе Китая сумели избавиться от крайней бедности.Десять уездов автономного района, среди которых уезды Шачэ, Моюй и Акто, отныне не относятся к бедным, что подтверждается государственными стандартами, говорится в сообщении правительства.Все десять уездов находятся на юге Синьцзян-Уйгурского АР, на территории крупнейшей в стране пустыни. Из-за суровых природных условий и неразвитой инфраструктуры для местных жителей долгое время оставались недоступны стабильный доход и различные государственные услуги.</t>
   </si>
   <si>
-    <t>Участок китайской автодороги государственной категории номер 219 соединяет уезд Ечэн синьцзянского округа Каши /Кашгар/ и уезд Лхадзе тибетского города Шигадзе. Его общая протяженность составляет 2 140 км, а средняя высота над уровнем моря - 4500 м. Эта дорога, проходящая через мощные хребты и обширную необжитую местность, считается самой сложной и высокогорной в мире.</t>
-  </si>
-  <si>
     <t>Последние десять бедных уездов Синьцзян-Уйгурского АР на северо-западе Китая сумели избавиться от крайней бедности. /Фото: Синьхуа/Урумчи, 14 ноября /Синьхуа/ -- Историческое достижение Синьцзян-Уйгурского АР -- регион полностью избавился от нищеты.Как сообщило сегодня правительство СУАР, последние десять бедных уездов Синьцзян-Уйгурского АР на северо-западе Китая сумели избавиться от крайней бедности.Десять уездов автономного района, среди которых уезды Шачэ, Моюй и Акто, отныне не относятся к бедным, что подтверждается государственными стандартами, говорится в сообщении правительства.Все десять уездов находятся на юге Синьцзян-Уйгурского АР, на территории крупнейшей в стране пустыни. Из-за суровых природных условий и неразвитой инфраструктуры для местных жителей долгое время оставались недоступны стабильный доход и различные государственные услуги. --0--</t>
-  </si>
-  <si>
-    <t>Урумчи, 19 декабря /Синьхуа/ -- Крупное месторождение природного газа, предполагаемые запасы которого составляют более 100 млрд кубометров, было открыто в Синьцзян-Уйгурском АР на северо-западе Китая. Об этом сообщает местное подразделение нефтегазовой корпорации PetroChina.Предварительные изыскания показывают, что газовая залежь площадью 156 млн кв. м, расположенная в центре южной окраины Джунгарской равнины, содержит 109 млрд кубометров газа, сообщил в пятницу генеральный директор Синьцзянского филиала корпорации PetroChina Хо Цзинь.По его словам, ожидаемый объем добычи природного газа на месторождении составит 610 тыс. кубометров в сутки, сырой нефти -- 106,3 кубометра."Это открытие стало крупным прорывом в разведке газовых залежей на южных окраинах Джунгарской равнины, что позволит нашей компании и дальше гарантировать поставки газа и внесет свой вклад в стабильность и процветание региона", -- заявил Хо Цзинь.</t>
-  </si>
-  <si>
-    <t>Пекин, 3 декабря /Синьхуа/ -- Отдельные американские политики сфабриковали так называемую проблему "принудительного труда", чтобы создать предлог для ограничения китайских предприятий и сдерживания развития Китая, заявила сегодня официальный представитель МИД КНР Хуа Чуньин.Она сделала это заявление, комментируя в ходе очередного пресс-брифинга министерства решение США о запрете импорта хлопка из Синьцзян-Уйгурского автономного района /Северо-Западный Китай/ под предлогом использования "принудительного труда".Действия США нарушают правила международной торговли и принципы рыночной экономики, наносят ущерб глобальным цепочкам производства и поставок, вредят интересам компаний и потребителей во всех странах, в том числе в США, заявила Хуа Чуньин."Следует отметить, что помощь людям всех этнических групп в обретении стабильной работы и "принудительный труд" -- совершенно разные понятия", -- заявила Хуа Чуньин, добавив, что работники всех национальностей в Синьцзян-Уйгурском АР выбирают работу по собственной воле. Они добровольно подписывают договоры с компаниями в соответствии с принципом равенства и "не будут подвергаться дискриминации из-за различий в национальности, поле и религиозных воззрениях", -- отметила она."Отдельные политики в США заявляют, что они заботятся и защищают права этнических групп в Синьцзян-Уйгурском АР, но, с другой стороны, они же ограничивают предприятия из Синьцзяна, используя давление и санкции, подрывают стабильное развитие и процветание Синьцзяна", -- заявила Хуа Чуньин.Китай призывает этих политиков уважать истинное положение дел и прекратить использование проблем, связанных с Синьцзян-Уйгурским АР, для вмешательства во внутренние дела страны. Китай будет и дальше принимать все необходимые меры для защиты прав и интересов китайских предприятий, заключила Хуа Чуньин.</t>
   </si>
   <si>
     <t>Синьцзян-Уйгурский автономный район /СУАР, Северо-Западный Китай/ совершил исторический подвиг, полностью покончив с абсолютной нищетой.
@@ -1449,9 +1449,6 @@
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" t="s">
         <v>203</v>
       </c>
@@ -1466,9 +1463,6 @@
       <c r="B3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" t="s">
         <v>204</v>
       </c>
@@ -1478,87 +1472,72 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1568,11 +1547,8 @@
       <c r="B9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
         <v>264</v>
@@ -1585,11 +1561,8 @@
       <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
         <v>265</v>
@@ -1602,11 +1575,8 @@
       <c r="B11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
         <v>266</v>
@@ -1614,121 +1584,100 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1738,11 +1687,8 @@
       <c r="B19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E19" t="s">
         <v>270</v>
@@ -1755,9 +1701,6 @@
       <c r="B20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D20" t="s">
         <v>210</v>
       </c>
@@ -1772,11 +1715,8 @@
       <c r="B21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" t="s">
         <v>272</v>
@@ -1789,9 +1729,6 @@
       <c r="B22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D22" t="s">
         <v>211</v>
       </c>
@@ -1806,9 +1743,6 @@
       <c r="B23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="D23" t="s">
         <v>212</v>
       </c>
@@ -1818,16 +1752,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
         <v>275</v>
@@ -1835,16 +1766,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
         <v>276</v>
@@ -1852,16 +1780,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
         <v>277</v>
@@ -1869,16 +1794,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E27" t="s">
         <v>278</v>
@@ -1886,16 +1811,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E28" t="s">
         <v>279</v>
@@ -1903,16 +1825,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E29" t="s">
         <v>280</v>
@@ -1920,16 +1842,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E30" t="s">
         <v>281</v>
@@ -1937,7 +1856,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>106</v>
@@ -1967,9 +1886,6 @@
       <c r="B33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D33" t="s">
         <v>218</v>
       </c>
@@ -1979,138 +1895,117 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E37" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
         <v>221</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E39" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2120,9 +2015,6 @@
       <c r="B42" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D42" t="s">
         <v>222</v>
       </c>
@@ -2137,9 +2029,6 @@
       <c r="B43" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D43" t="s">
         <v>223</v>
       </c>
@@ -2172,7 +2061,7 @@
         <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
         <v>224</v>
@@ -2188,9 +2077,6 @@
       <c r="B46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D46" t="s">
         <v>225</v>
       </c>
@@ -2205,9 +2091,6 @@
       <c r="B47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D47" t="s">
         <v>226</v>
       </c>
@@ -2217,16 +2100,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E48" t="s">
         <v>294</v>
@@ -2234,53 +2114,44 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E51" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2290,9 +2161,6 @@
       <c r="B52" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="D52" t="s">
         <v>227</v>
       </c>
@@ -2308,7 +2176,7 @@
         <v>126</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="D53" t="s">
         <v>228</v>
@@ -2319,36 +2187,30 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E54" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2359,7 +2221,7 @@
         <v>129</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="D56" t="s">
         <v>230</v>
@@ -2370,36 +2232,30 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E57" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2407,50 +2263,41 @@
         <v>43</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
         <v>232</v>
       </c>
       <c r="E59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2460,9 +2307,6 @@
       <c r="B62" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D62" t="s">
         <v>233</v>
       </c>
@@ -2478,7 +2322,7 @@
         <v>135</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
         <v>234</v>
@@ -2511,11 +2355,8 @@
       <c r="B65" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
         <v>306</v>
@@ -2529,7 +2370,7 @@
         <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
         <v>236</v>
@@ -2546,10 +2387,10 @@
         <v>139</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E67" t="s">
         <v>308</v>
@@ -2557,16 +2398,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E68" t="s">
         <v>309</v>
@@ -2574,16 +2415,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E69" t="s">
         <v>310</v>
@@ -2591,16 +2429,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E70" t="s">
         <v>311</v>
@@ -2608,16 +2443,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E71" t="s">
         <v>312</v>
@@ -2676,84 +2508,75 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E75" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="D78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E79" t="s">
         <v>319</v>
@@ -2761,16 +2584,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E80" t="s">
         <v>319</v>
@@ -2778,70 +2598,61 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D81" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E81" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E84" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2851,9 +2662,6 @@
       <c r="B85" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="D85" t="s">
         <v>245</v>
       </c>
@@ -2863,104 +2671,89 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="D86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D87" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E87" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E88" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2970,9 +2763,6 @@
       <c r="B92" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="D92" t="s">
         <v>249</v>
       </c>
@@ -2988,10 +2778,10 @@
         <v>160</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D93" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
         <v>327</v>
@@ -2999,16 +2789,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E94" t="s">
         <v>328</v>
@@ -3021,11 +2808,8 @@
       <c r="B95" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
         <v>329</v>
@@ -3039,10 +2823,10 @@
         <v>163</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E96" t="s">
         <v>330</v>
@@ -3050,19 +2834,19 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E97" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3072,31 +2856,25 @@
       <c r="B98" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="D98" t="s">
         <v>252</v>
       </c>
       <c r="E98" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="D99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E99" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3104,30 +2882,24 @@
         <v>69</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E100" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E101" t="s">
         <v>333</v>
@@ -3135,53 +2907,44 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D102" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E102" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D103" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E103" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D104" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E104" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3208,11 +2971,8 @@
       <c r="B106" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="D106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E106" t="s">
         <v>336</v>
@@ -3226,7 +2986,7 @@
         <v>171</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D107" t="s">
         <v>255</v>
@@ -3242,11 +3002,8 @@
       <c r="B108" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D108" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E108" t="s">
         <v>338</v>
@@ -3260,10 +3017,10 @@
         <v>173</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E109" t="s">
         <v>339</v>
@@ -3276,11 +3033,8 @@
       <c r="B110" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D110" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E110" t="s">
         <v>340</v>
@@ -3306,224 +3060,142 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="C5" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="C8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="C9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="C12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23"/>
-    <hyperlink ref="C13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25"/>
-    <hyperlink ref="C14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27"/>
-    <hyperlink ref="C15" r:id="rId28"/>
-    <hyperlink ref="B16" r:id="rId29"/>
-    <hyperlink ref="C16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31"/>
-    <hyperlink ref="C17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33"/>
-    <hyperlink ref="C18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35"/>
-    <hyperlink ref="C19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="C20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="C21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="C22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="C23" r:id="rId44"/>
-    <hyperlink ref="B24" r:id="rId45"/>
-    <hyperlink ref="C24" r:id="rId46"/>
-    <hyperlink ref="B25" r:id="rId47"/>
-    <hyperlink ref="C25" r:id="rId48"/>
-    <hyperlink ref="B26" r:id="rId49"/>
-    <hyperlink ref="C26" r:id="rId50"/>
-    <hyperlink ref="B27" r:id="rId51"/>
-    <hyperlink ref="C27" r:id="rId52"/>
-    <hyperlink ref="B28" r:id="rId53"/>
-    <hyperlink ref="C28" r:id="rId54"/>
-    <hyperlink ref="B29" r:id="rId55"/>
-    <hyperlink ref="C29" r:id="rId56"/>
-    <hyperlink ref="B30" r:id="rId57"/>
-    <hyperlink ref="C30" r:id="rId58"/>
-    <hyperlink ref="B31" r:id="rId59"/>
-    <hyperlink ref="B32" r:id="rId60"/>
-    <hyperlink ref="C32" r:id="rId61"/>
-    <hyperlink ref="B33" r:id="rId62"/>
-    <hyperlink ref="C33" r:id="rId63"/>
-    <hyperlink ref="B34" r:id="rId64"/>
-    <hyperlink ref="C34" r:id="rId65"/>
-    <hyperlink ref="B35" r:id="rId66"/>
-    <hyperlink ref="C35" r:id="rId67"/>
-    <hyperlink ref="B36" r:id="rId68"/>
-    <hyperlink ref="C36" r:id="rId69"/>
-    <hyperlink ref="B37" r:id="rId70"/>
-    <hyperlink ref="C37" r:id="rId71"/>
-    <hyperlink ref="B38" r:id="rId72"/>
-    <hyperlink ref="C38" r:id="rId73"/>
-    <hyperlink ref="B39" r:id="rId74"/>
-    <hyperlink ref="C39" r:id="rId75"/>
-    <hyperlink ref="B40" r:id="rId76"/>
-    <hyperlink ref="C40" r:id="rId77"/>
-    <hyperlink ref="B41" r:id="rId78"/>
-    <hyperlink ref="C41" r:id="rId79"/>
-    <hyperlink ref="B42" r:id="rId80"/>
-    <hyperlink ref="C42" r:id="rId81"/>
-    <hyperlink ref="B43" r:id="rId82"/>
-    <hyperlink ref="C43" r:id="rId83"/>
-    <hyperlink ref="B44" r:id="rId84"/>
-    <hyperlink ref="C44" r:id="rId85"/>
-    <hyperlink ref="B45" r:id="rId86"/>
-    <hyperlink ref="C45" r:id="rId87"/>
-    <hyperlink ref="B46" r:id="rId88"/>
-    <hyperlink ref="C46" r:id="rId89"/>
-    <hyperlink ref="B47" r:id="rId90"/>
-    <hyperlink ref="C47" r:id="rId91"/>
-    <hyperlink ref="B48" r:id="rId92"/>
-    <hyperlink ref="C48" r:id="rId93"/>
-    <hyperlink ref="B49" r:id="rId94"/>
-    <hyperlink ref="C49" r:id="rId95"/>
-    <hyperlink ref="B50" r:id="rId96"/>
-    <hyperlink ref="C50" r:id="rId97"/>
-    <hyperlink ref="B51" r:id="rId98"/>
-    <hyperlink ref="C51" r:id="rId99"/>
-    <hyperlink ref="B52" r:id="rId100"/>
-    <hyperlink ref="C52" r:id="rId101"/>
-    <hyperlink ref="B53" r:id="rId102"/>
-    <hyperlink ref="C53" r:id="rId103"/>
-    <hyperlink ref="B54" r:id="rId104"/>
-    <hyperlink ref="C54" r:id="rId105"/>
-    <hyperlink ref="B55" r:id="rId106"/>
-    <hyperlink ref="C55" r:id="rId107"/>
-    <hyperlink ref="B56" r:id="rId108"/>
-    <hyperlink ref="C56" r:id="rId109"/>
-    <hyperlink ref="B57" r:id="rId110"/>
-    <hyperlink ref="C57" r:id="rId111"/>
-    <hyperlink ref="B58" r:id="rId112"/>
-    <hyperlink ref="C58" r:id="rId113"/>
-    <hyperlink ref="B59" r:id="rId114"/>
-    <hyperlink ref="C59" r:id="rId115"/>
-    <hyperlink ref="B60" r:id="rId116"/>
-    <hyperlink ref="C60" r:id="rId117"/>
-    <hyperlink ref="B61" r:id="rId118"/>
-    <hyperlink ref="C61" r:id="rId119"/>
-    <hyperlink ref="B62" r:id="rId120"/>
-    <hyperlink ref="C62" r:id="rId121"/>
-    <hyperlink ref="B63" r:id="rId122"/>
-    <hyperlink ref="C63" r:id="rId123"/>
-    <hyperlink ref="B64" r:id="rId124"/>
-    <hyperlink ref="C64" r:id="rId125"/>
-    <hyperlink ref="B65" r:id="rId126"/>
-    <hyperlink ref="C65" r:id="rId127"/>
-    <hyperlink ref="B66" r:id="rId128"/>
-    <hyperlink ref="C66" r:id="rId129"/>
-    <hyperlink ref="B67" r:id="rId130"/>
-    <hyperlink ref="C67" r:id="rId131"/>
-    <hyperlink ref="B68" r:id="rId132"/>
-    <hyperlink ref="C68" r:id="rId133"/>
-    <hyperlink ref="B69" r:id="rId134"/>
-    <hyperlink ref="C69" r:id="rId135"/>
-    <hyperlink ref="B70" r:id="rId136"/>
-    <hyperlink ref="C70" r:id="rId137"/>
-    <hyperlink ref="B71" r:id="rId138"/>
-    <hyperlink ref="C71" r:id="rId139"/>
-    <hyperlink ref="B72" r:id="rId140"/>
-    <hyperlink ref="C72" r:id="rId141"/>
-    <hyperlink ref="B73" r:id="rId142"/>
-    <hyperlink ref="C73" r:id="rId143"/>
-    <hyperlink ref="B74" r:id="rId144"/>
-    <hyperlink ref="C74" r:id="rId145"/>
-    <hyperlink ref="B75" r:id="rId146"/>
-    <hyperlink ref="C75" r:id="rId147"/>
-    <hyperlink ref="B76" r:id="rId148"/>
-    <hyperlink ref="C76" r:id="rId149"/>
-    <hyperlink ref="B77" r:id="rId150"/>
-    <hyperlink ref="C77" r:id="rId151"/>
-    <hyperlink ref="B78" r:id="rId152"/>
-    <hyperlink ref="C78" r:id="rId153"/>
-    <hyperlink ref="B79" r:id="rId154"/>
-    <hyperlink ref="C79" r:id="rId155"/>
-    <hyperlink ref="B80" r:id="rId156"/>
-    <hyperlink ref="C80" r:id="rId157"/>
-    <hyperlink ref="B81" r:id="rId158"/>
-    <hyperlink ref="C81" r:id="rId159"/>
-    <hyperlink ref="B82" r:id="rId160"/>
-    <hyperlink ref="C82" r:id="rId161"/>
-    <hyperlink ref="B83" r:id="rId162"/>
-    <hyperlink ref="C83" r:id="rId163"/>
-    <hyperlink ref="B84" r:id="rId164"/>
-    <hyperlink ref="C84" r:id="rId165"/>
-    <hyperlink ref="B85" r:id="rId166"/>
-    <hyperlink ref="C85" r:id="rId167"/>
-    <hyperlink ref="B86" r:id="rId168"/>
-    <hyperlink ref="C86" r:id="rId169"/>
-    <hyperlink ref="B87" r:id="rId170"/>
-    <hyperlink ref="C87" r:id="rId171"/>
-    <hyperlink ref="B88" r:id="rId172"/>
-    <hyperlink ref="C88" r:id="rId173"/>
-    <hyperlink ref="B89" r:id="rId174"/>
-    <hyperlink ref="C89" r:id="rId175"/>
-    <hyperlink ref="B90" r:id="rId176"/>
-    <hyperlink ref="C90" r:id="rId177"/>
-    <hyperlink ref="B91" r:id="rId178"/>
-    <hyperlink ref="C91" r:id="rId179"/>
-    <hyperlink ref="B92" r:id="rId180"/>
-    <hyperlink ref="C92" r:id="rId181"/>
-    <hyperlink ref="B93" r:id="rId182"/>
-    <hyperlink ref="C93" r:id="rId183"/>
-    <hyperlink ref="B94" r:id="rId184"/>
-    <hyperlink ref="C94" r:id="rId185"/>
-    <hyperlink ref="B95" r:id="rId186"/>
-    <hyperlink ref="C95" r:id="rId187"/>
-    <hyperlink ref="B96" r:id="rId188"/>
-    <hyperlink ref="C96" r:id="rId189"/>
-    <hyperlink ref="B97" r:id="rId190"/>
-    <hyperlink ref="C97" r:id="rId191"/>
-    <hyperlink ref="B98" r:id="rId192"/>
-    <hyperlink ref="C98" r:id="rId193"/>
-    <hyperlink ref="B99" r:id="rId194"/>
-    <hyperlink ref="C99" r:id="rId195"/>
-    <hyperlink ref="B100" r:id="rId196"/>
-    <hyperlink ref="C100" r:id="rId197"/>
-    <hyperlink ref="B101" r:id="rId198"/>
-    <hyperlink ref="C101" r:id="rId199"/>
-    <hyperlink ref="B102" r:id="rId200"/>
-    <hyperlink ref="C102" r:id="rId201"/>
-    <hyperlink ref="B103" r:id="rId202"/>
-    <hyperlink ref="C103" r:id="rId203"/>
-    <hyperlink ref="B104" r:id="rId204"/>
-    <hyperlink ref="C104" r:id="rId205"/>
-    <hyperlink ref="B105" r:id="rId206"/>
-    <hyperlink ref="C105" r:id="rId207"/>
-    <hyperlink ref="B106" r:id="rId208"/>
-    <hyperlink ref="C106" r:id="rId209"/>
-    <hyperlink ref="B107" r:id="rId210"/>
-    <hyperlink ref="C107" r:id="rId211"/>
-    <hyperlink ref="B108" r:id="rId212"/>
-    <hyperlink ref="C108" r:id="rId213"/>
-    <hyperlink ref="B109" r:id="rId214"/>
-    <hyperlink ref="C109" r:id="rId215"/>
-    <hyperlink ref="B110" r:id="rId216"/>
-    <hyperlink ref="C110" r:id="rId217"/>
-    <hyperlink ref="B111" r:id="rId218"/>
-    <hyperlink ref="C111" r:id="rId219"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="C27" r:id="rId27"/>
+    <hyperlink ref="B28" r:id="rId28"/>
+    <hyperlink ref="B29" r:id="rId29"/>
+    <hyperlink ref="C29" r:id="rId30"/>
+    <hyperlink ref="B30" r:id="rId31"/>
+    <hyperlink ref="B31" r:id="rId32"/>
+    <hyperlink ref="B32" r:id="rId33"/>
+    <hyperlink ref="C32" r:id="rId34"/>
+    <hyperlink ref="B33" r:id="rId35"/>
+    <hyperlink ref="B34" r:id="rId36"/>
+    <hyperlink ref="B35" r:id="rId37"/>
+    <hyperlink ref="C35" r:id="rId38"/>
+    <hyperlink ref="B36" r:id="rId39"/>
+    <hyperlink ref="B37" r:id="rId40"/>
+    <hyperlink ref="B38" r:id="rId41"/>
+    <hyperlink ref="B39" r:id="rId42"/>
+    <hyperlink ref="B40" r:id="rId43"/>
+    <hyperlink ref="B41" r:id="rId44"/>
+    <hyperlink ref="B42" r:id="rId45"/>
+    <hyperlink ref="B43" r:id="rId46"/>
+    <hyperlink ref="B44" r:id="rId47"/>
+    <hyperlink ref="C44" r:id="rId48"/>
+    <hyperlink ref="B45" r:id="rId49"/>
+    <hyperlink ref="C45" r:id="rId50"/>
+    <hyperlink ref="B46" r:id="rId51"/>
+    <hyperlink ref="B47" r:id="rId52"/>
+    <hyperlink ref="B48" r:id="rId53"/>
+    <hyperlink ref="B49" r:id="rId54"/>
+    <hyperlink ref="B50" r:id="rId55"/>
+    <hyperlink ref="B51" r:id="rId56"/>
+    <hyperlink ref="B52" r:id="rId57"/>
+    <hyperlink ref="B53" r:id="rId58"/>
+    <hyperlink ref="C53" r:id="rId59"/>
+    <hyperlink ref="B54" r:id="rId60"/>
+    <hyperlink ref="B55" r:id="rId61"/>
+    <hyperlink ref="B56" r:id="rId62"/>
+    <hyperlink ref="C56" r:id="rId63"/>
+    <hyperlink ref="B57" r:id="rId64"/>
+    <hyperlink ref="B58" r:id="rId65"/>
+    <hyperlink ref="B59" r:id="rId66"/>
+    <hyperlink ref="B60" r:id="rId67"/>
+    <hyperlink ref="B61" r:id="rId68"/>
+    <hyperlink ref="B62" r:id="rId69"/>
+    <hyperlink ref="B63" r:id="rId70"/>
+    <hyperlink ref="C63" r:id="rId71"/>
+    <hyperlink ref="B64" r:id="rId72"/>
+    <hyperlink ref="C64" r:id="rId73"/>
+    <hyperlink ref="B65" r:id="rId74"/>
+    <hyperlink ref="B66" r:id="rId75"/>
+    <hyperlink ref="C66" r:id="rId76"/>
+    <hyperlink ref="B67" r:id="rId77"/>
+    <hyperlink ref="C67" r:id="rId78"/>
+    <hyperlink ref="B68" r:id="rId79"/>
+    <hyperlink ref="C68" r:id="rId80"/>
+    <hyperlink ref="B69" r:id="rId81"/>
+    <hyperlink ref="B70" r:id="rId82"/>
+    <hyperlink ref="B71" r:id="rId83"/>
+    <hyperlink ref="B72" r:id="rId84"/>
+    <hyperlink ref="C72" r:id="rId85"/>
+    <hyperlink ref="B73" r:id="rId86"/>
+    <hyperlink ref="C73" r:id="rId87"/>
+    <hyperlink ref="B74" r:id="rId88"/>
+    <hyperlink ref="C74" r:id="rId89"/>
+    <hyperlink ref="B75" r:id="rId90"/>
+    <hyperlink ref="B76" r:id="rId91"/>
+    <hyperlink ref="B77" r:id="rId92"/>
+    <hyperlink ref="C77" r:id="rId93"/>
+    <hyperlink ref="B78" r:id="rId94"/>
+    <hyperlink ref="C78" r:id="rId95"/>
+    <hyperlink ref="B79" r:id="rId96"/>
+    <hyperlink ref="B80" r:id="rId97"/>
+    <hyperlink ref="B81" r:id="rId98"/>
+    <hyperlink ref="B82" r:id="rId99"/>
+    <hyperlink ref="B83" r:id="rId100"/>
+    <hyperlink ref="C83" r:id="rId101"/>
+    <hyperlink ref="B84" r:id="rId102"/>
+    <hyperlink ref="B85" r:id="rId103"/>
+    <hyperlink ref="B86" r:id="rId104"/>
+    <hyperlink ref="B87" r:id="rId105"/>
+    <hyperlink ref="B88" r:id="rId106"/>
+    <hyperlink ref="B89" r:id="rId107"/>
+    <hyperlink ref="C89" r:id="rId108"/>
+    <hyperlink ref="B90" r:id="rId109"/>
+    <hyperlink ref="B91" r:id="rId110"/>
+    <hyperlink ref="B92" r:id="rId111"/>
+    <hyperlink ref="B93" r:id="rId112"/>
+    <hyperlink ref="C93" r:id="rId113"/>
+    <hyperlink ref="B94" r:id="rId114"/>
+    <hyperlink ref="B95" r:id="rId115"/>
+    <hyperlink ref="B96" r:id="rId116"/>
+    <hyperlink ref="C96" r:id="rId117"/>
+    <hyperlink ref="B97" r:id="rId118"/>
+    <hyperlink ref="C97" r:id="rId119"/>
+    <hyperlink ref="B98" r:id="rId120"/>
+    <hyperlink ref="B99" r:id="rId121"/>
+    <hyperlink ref="B100" r:id="rId122"/>
+    <hyperlink ref="B101" r:id="rId123"/>
+    <hyperlink ref="B102" r:id="rId124"/>
+    <hyperlink ref="B103" r:id="rId125"/>
+    <hyperlink ref="B104" r:id="rId126"/>
+    <hyperlink ref="B105" r:id="rId127"/>
+    <hyperlink ref="C105" r:id="rId128"/>
+    <hyperlink ref="B106" r:id="rId129"/>
+    <hyperlink ref="B107" r:id="rId130"/>
+    <hyperlink ref="C107" r:id="rId131"/>
+    <hyperlink ref="B108" r:id="rId132"/>
+    <hyperlink ref="B109" r:id="rId133"/>
+    <hyperlink ref="C109" r:id="rId134"/>
+    <hyperlink ref="B110" r:id="rId135"/>
+    <hyperlink ref="B111" r:id="rId136"/>
+    <hyperlink ref="C111" r:id="rId137"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
